--- a/Problems1-24-Autumn BuchilkinNA.xlsx
+++ b/Problems1-24-Autumn BuchilkinNA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="239">
   <si>
     <t>}</t>
   </si>
@@ -1032,24 +1032,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1072,21 +1054,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1097,6 +1064,39 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1486,7 +1486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1497,8 +1497,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:AH354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="T120" sqref="T120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1796,22 +1796,22 @@
     </row>
     <row r="20" spans="1:21" ht="23.4">
       <c r="C20" s="6"/>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
     </row>
     <row r="22" spans="1:21">
       <c r="H22" s="7">
@@ -1941,41 +1941,41 @@
     </row>
     <row r="30" spans="1:21">
       <c r="C30" s="2"/>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
     </row>
     <row r="31" spans="1:21">
       <c r="C31" s="2"/>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="26">
@@ -2423,11 +2423,11 @@
       <c r="L65" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N65" s="33" t="s">
+      <c r="N65" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
     </row>
     <row r="66" spans="1:17">
       <c r="E66" t="s">
@@ -2452,10 +2452,10 @@
       <c r="L66" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P66" s="63" t="s">
+      <c r="P66" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="Q66" s="63">
+      <c r="Q66" s="52">
         <v>1</v>
       </c>
     </row>
@@ -2472,14 +2472,14 @@
       <c r="L67" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N67" s="33" t="s">
+      <c r="N67" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="O67" s="33"/>
-      <c r="P67" s="63" t="s">
+      <c r="O67" s="54"/>
+      <c r="P67" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="Q67" s="63">
+      <c r="Q67" s="52">
         <v>2</v>
       </c>
     </row>
@@ -2496,10 +2496,10 @@
       <c r="L68" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P68" s="63" t="s">
+      <c r="P68" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="Q68" s="63">
+      <c r="Q68" s="52">
         <v>3</v>
       </c>
     </row>
@@ -2516,10 +2516,10 @@
       <c r="L69" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P69" s="64" t="s">
+      <c r="P69" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="Q69" s="63">
+      <c r="Q69" s="52">
         <v>1</v>
       </c>
     </row>
@@ -2536,10 +2536,10 @@
       <c r="L70" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P70" s="64" t="s">
+      <c r="P70" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="Q70" s="63">
+      <c r="Q70" s="52">
         <v>2</v>
       </c>
     </row>
@@ -2556,10 +2556,10 @@
       <c r="L71" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P71" s="64" t="s">
+      <c r="P71" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="Q71" s="63">
+      <c r="Q71" s="52">
         <v>3</v>
       </c>
     </row>
@@ -2576,10 +2576,10 @@
       <c r="L72" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P72" s="64" t="s">
+      <c r="P72" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="Q72" s="63">
+      <c r="Q72" s="52">
         <v>1</v>
       </c>
     </row>
@@ -2596,10 +2596,10 @@
       <c r="L73" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P73" s="64" t="s">
+      <c r="P73" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="Q73" s="63">
+      <c r="Q73" s="52">
         <v>2</v>
       </c>
     </row>
@@ -2607,10 +2607,10 @@
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
-      <c r="P74" s="64" t="s">
+      <c r="P74" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="Q74" s="63">
+      <c r="Q74" s="52">
         <v>3</v>
       </c>
     </row>
@@ -2714,13 +2714,13 @@
       <c r="E85" s="27"/>
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
-      <c r="H85" s="33" t="s">
+      <c r="H85" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
       <c r="M85" s="17">
         <v>45544</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:26">
       <c r="H97" s="7">
         <v>9</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:26">
       <c r="H98" s="15">
         <v>56</v>
       </c>
@@ -2861,53 +2861,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:26">
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:26">
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="7">
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
-      <c r="H101" s="35" t="s">
+    <row r="101" spans="1:26">
+      <c r="H101" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="I101" s="35"/>
+      <c r="I101" s="60"/>
       <c r="J101" s="7">
         <v>12</v>
       </c>
-      <c r="L101" s="33"/>
-      <c r="M101" s="33"/>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+    </row>
+    <row r="102" spans="1:26">
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:26">
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:26">
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:26">
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:26">
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:26">
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:26">
       <c r="A108" s="26">
         <v>7</v>
       </c>
@@ -2915,23 +2915,39 @@
         <v>163</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:26">
       <c r="B109" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
-      <c r="I111" s="56" t="s">
+    <row r="111" spans="1:26">
+      <c r="I111" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="J111" s="56"/>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="I112" s="34" t="s">
+      <c r="J111" s="61"/>
+      <c r="U111" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26">
+      <c r="I112" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="J112" s="34"/>
+      <c r="J112" s="57"/>
       <c r="L112" s="27"/>
+      <c r="P112" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q112" s="54"/>
+      <c r="R112" s="54"/>
+      <c r="S112" s="54"/>
+      <c r="T112" s="54"/>
+      <c r="U112" s="54"/>
+      <c r="V112" s="54"/>
+      <c r="W112" s="54"/>
+      <c r="X112" s="54"/>
+      <c r="Y112" s="54"/>
+      <c r="Z112" s="54"/>
     </row>
     <row r="113" spans="1:26">
       <c r="H113" s="27"/>
@@ -2944,155 +2960,160 @@
       <c r="M113" s="27"/>
       <c r="N113" s="27"/>
       <c r="O113" s="27"/>
-      <c r="P113" s="27"/>
-      <c r="Q113" s="27"/>
-      <c r="R113" s="27"/>
-      <c r="S113" s="27"/>
+      <c r="P113" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="S113" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W113" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z113" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="114" spans="1:26">
-      <c r="I114" s="30" t="s">
+      <c r="I114" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="J114" s="31"/>
-      <c r="K114" s="32"/>
-      <c r="U114" s="7" t="s">
-        <v>193</v>
-      </c>
+      <c r="J114" s="63"/>
+      <c r="K114" s="64"/>
+      <c r="T114" s="14"/>
+      <c r="U114" s="14"/>
     </row>
     <row r="115" spans="1:26">
-      <c r="F115" s="33" t="s">
+      <c r="F115" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
-      <c r="I115" s="33"/>
-      <c r="J115" s="33"/>
-      <c r="K115" s="33"/>
-      <c r="L115" s="33"/>
+      <c r="G115" s="54"/>
+      <c r="H115" s="54"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="54"/>
+      <c r="L115" s="54"/>
       <c r="O115" s="27"/>
-      <c r="P115" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q115" s="33"/>
-      <c r="R115" s="33"/>
-      <c r="S115" s="33"/>
-      <c r="T115" s="33"/>
-      <c r="U115" s="33"/>
-      <c r="V115" s="33"/>
-      <c r="W115" s="33"/>
-      <c r="X115" s="33"/>
-      <c r="Y115" s="33"/>
-      <c r="Z115" s="33"/>
+      <c r="P115" s="54"/>
+      <c r="Q115" s="54"/>
+      <c r="R115" s="54"/>
+      <c r="S115" s="54"/>
+      <c r="T115" s="54"/>
+      <c r="U115" s="54"/>
+      <c r="V115" s="54"/>
+      <c r="W115" s="54"/>
+      <c r="X115" s="54"/>
+      <c r="Y115" s="54"/>
+      <c r="Z115" s="54"/>
     </row>
     <row r="116" spans="1:26">
-      <c r="H116" s="56" t="s">
+      <c r="H116" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="I116" s="56"/>
-      <c r="J116" s="56"/>
-      <c r="K116" s="56"/>
-      <c r="L116" s="56"/>
+      <c r="I116" s="61"/>
+      <c r="J116" s="61"/>
+      <c r="K116" s="61"/>
+      <c r="L116" s="61"/>
       <c r="P116" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="Q116" s="33" t="s">
+      <c r="Q116" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="R116" s="54"/>
+      <c r="R116" s="56"/>
       <c r="S116" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T116" s="53" t="s">
+      <c r="T116" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="U116" s="33"/>
-      <c r="V116" s="54"/>
+      <c r="U116" s="54"/>
+      <c r="V116" s="56"/>
       <c r="W116" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="X116" s="53" t="s">
+      <c r="X116" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="Y116" s="54"/>
+      <c r="Y116" s="56"/>
       <c r="Z116" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:26">
-      <c r="H117" s="31" t="s">
+      <c r="H117" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="31"/>
-      <c r="L117" s="31"/>
+      <c r="I117" s="63"/>
+      <c r="J117" s="63"/>
+      <c r="K117" s="63"/>
+      <c r="L117" s="63"/>
     </row>
     <row r="118" spans="1:26">
       <c r="H118" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I118" s="34" t="s">
+      <c r="I118" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="J118" s="34"/>
-      <c r="K118" s="34" t="s">
+      <c r="J118" s="57"/>
+      <c r="K118" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="L118" s="34"/>
+      <c r="L118" s="57"/>
     </row>
     <row r="121" spans="1:26">
-      <c r="K121" s="33"/>
-      <c r="L121" s="33"/>
-      <c r="M121" s="33"/>
-      <c r="N121" s="33"/>
-      <c r="O121" s="33"/>
-      <c r="P121" s="33"/>
-      <c r="Q121" s="33"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="54"/>
+      <c r="N121" s="54"/>
+      <c r="O121" s="54"/>
+      <c r="P121" s="54"/>
+      <c r="Q121" s="54"/>
     </row>
     <row r="122" spans="1:26">
       <c r="K122" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L122" s="53" t="s">
+      <c r="L122" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="M122" s="54"/>
+      <c r="M122" s="56"/>
       <c r="N122" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="O122" s="53" t="s">
+      <c r="O122" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="P122" s="54"/>
+      <c r="P122" s="56"/>
       <c r="Q122" s="7" t="s">
         <v>42</v>
       </c>
       <c r="S122" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T122" s="53" t="s">
+      <c r="T122" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="U122" s="54"/>
+      <c r="U122" s="56"/>
       <c r="V122" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="W122" s="53" t="s">
+      <c r="W122" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="X122" s="54"/>
+      <c r="X122" s="56"/>
       <c r="Y122" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:26">
-      <c r="K123" s="33"/>
-      <c r="L123" s="33"/>
-      <c r="M123" s="33"/>
-      <c r="N123" s="33"/>
-      <c r="O123" s="33"/>
-      <c r="P123" s="33"/>
-      <c r="Q123" s="33"/>
+      <c r="K123" s="54"/>
+      <c r="L123" s="54"/>
+      <c r="M123" s="54"/>
+      <c r="N123" s="54"/>
+      <c r="O123" s="54"/>
+      <c r="P123" s="54"/>
+      <c r="Q123" s="54"/>
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="26">
@@ -3134,10 +3155,10 @@
       </c>
     </row>
     <row r="131" spans="7:13">
-      <c r="I131" s="36">
+      <c r="I131" s="30">
         <v>3</v>
       </c>
-      <c r="J131" s="36">
+      <c r="J131" s="30">
         <v>9</v>
       </c>
       <c r="L131" s="7" t="s">
@@ -3148,10 +3169,10 @@
       </c>
     </row>
     <row r="132" spans="7:13">
-      <c r="I132" s="36">
+      <c r="I132" s="30">
         <v>3</v>
       </c>
-      <c r="J132" s="36">
+      <c r="J132" s="30">
         <v>9</v>
       </c>
       <c r="L132" s="7" t="s">
@@ -3179,10 +3200,10 @@
       </c>
     </row>
     <row r="135" spans="7:13">
-      <c r="I135" s="36">
-        <v>2</v>
-      </c>
-      <c r="J135" s="36">
+      <c r="I135" s="30">
+        <v>2</v>
+      </c>
+      <c r="J135" s="30">
         <v>7</v>
       </c>
       <c r="L135" s="7">
@@ -3207,10 +3228,10 @@
       </c>
     </row>
     <row r="137" spans="7:13">
-      <c r="I137" s="36">
-        <v>2</v>
-      </c>
-      <c r="J137" s="36">
+      <c r="I137" s="30">
+        <v>2</v>
+      </c>
+      <c r="J137" s="30">
         <v>7</v>
       </c>
       <c r="L137" s="7">
@@ -3221,7 +3242,7 @@
       </c>
     </row>
     <row r="139" spans="7:13">
-      <c r="G139" s="45" t="s">
+      <c r="G139" s="39" t="s">
         <v>31</v>
       </c>
       <c r="I139" s="8">
@@ -3332,7 +3353,7 @@
       <c r="I147" s="7">
         <v>4</v>
       </c>
-      <c r="J147" s="36" t="s">
+      <c r="J147" s="30" t="s">
         <v>56</v>
       </c>
       <c r="L147" s="7">
@@ -3356,136 +3377,136 @@
       </c>
     </row>
     <row r="151" spans="1:21">
-      <c r="I151" s="57" t="s">
+      <c r="I151" s="46" t="s">
         <v>20</v>
       </c>
       <c r="J151" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K151" s="61" t="s">
+      <c r="K151" s="50" t="s">
         <v>33</v>
       </c>
       <c r="L151" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M151" s="59" t="s">
+      <c r="M151" s="48" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="152" spans="1:21">
-      <c r="I152" s="57" t="s">
+      <c r="I152" s="46" t="s">
         <v>53</v>
       </c>
       <c r="J152" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="K152" s="61" t="s">
+      <c r="K152" s="50" t="s">
         <v>125</v>
       </c>
       <c r="L152" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="M152" s="59" t="s">
+      <c r="M152" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="O152" s="33" t="s">
+      <c r="O152" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="P152" s="33"/>
-      <c r="Q152" s="33"/>
-      <c r="R152" s="33"/>
+      <c r="P152" s="54"/>
+      <c r="Q152" s="54"/>
+      <c r="R152" s="54"/>
     </row>
     <row r="153" spans="1:21">
-      <c r="I153" s="58" t="s">
+      <c r="I153" s="47" t="s">
         <v>119</v>
       </c>
       <c r="J153" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K153" s="62">
+      <c r="K153" s="51">
         <v>1</v>
       </c>
       <c r="L153" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M153" s="60">
+      <c r="M153" s="49">
         <v>36892</v>
       </c>
-      <c r="O153" s="33" t="s">
+      <c r="O153" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="P153" s="33"/>
-      <c r="Q153" s="33"/>
-      <c r="R153" s="33"/>
-      <c r="S153" s="33"/>
-      <c r="T153" s="33"/>
-      <c r="U153" s="33"/>
+      <c r="P153" s="54"/>
+      <c r="Q153" s="54"/>
+      <c r="R153" s="54"/>
+      <c r="S153" s="54"/>
+      <c r="T153" s="54"/>
+      <c r="U153" s="54"/>
     </row>
     <row r="154" spans="1:21">
-      <c r="I154" s="58" t="s">
+      <c r="I154" s="47" t="s">
         <v>120</v>
       </c>
       <c r="J154" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K154" s="62">
+      <c r="K154" s="51">
         <v>2</v>
       </c>
       <c r="L154" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M154" s="60">
+      <c r="M154" s="49">
         <v>39815</v>
       </c>
     </row>
     <row r="155" spans="1:21">
-      <c r="I155" s="58" t="s">
+      <c r="I155" s="47" t="s">
         <v>121</v>
       </c>
       <c r="J155" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K155" s="62">
+      <c r="K155" s="51">
         <v>3</v>
       </c>
       <c r="L155" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="M155" s="60">
+      <c r="M155" s="49">
         <v>43833</v>
       </c>
     </row>
     <row r="156" spans="1:21">
-      <c r="I156" s="58" t="s">
+      <c r="I156" s="47" t="s">
         <v>122</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K156" s="62">
+      <c r="K156" s="51">
         <v>1</v>
       </c>
       <c r="L156" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M156" s="60">
+      <c r="M156" s="49">
         <v>36892</v>
       </c>
     </row>
     <row r="157" spans="1:21">
-      <c r="I157" s="58" t="s">
+      <c r="I157" s="47" t="s">
         <v>123</v>
       </c>
       <c r="J157" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K157" s="62">
+      <c r="K157" s="51">
         <v>3</v>
       </c>
       <c r="L157" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M157" s="60">
+      <c r="M157" s="49">
         <v>42374</v>
       </c>
     </row>
@@ -3640,11 +3661,11 @@
       </c>
     </row>
     <row r="171" spans="2:20">
-      <c r="H171" s="33" t="s">
+      <c r="H171" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="I171" s="33"/>
-      <c r="K171" s="44" t="s">
+      <c r="I171" s="54"/>
+      <c r="K171" s="38" t="s">
         <v>30</v>
       </c>
       <c r="M171" s="11" t="s">
@@ -3767,13 +3788,13 @@
       <c r="P177" s="14"/>
     </row>
     <row r="179" spans="6:20">
-      <c r="F179" s="33" t="s">
+      <c r="F179" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="G179" s="33"/>
-      <c r="H179" s="33"/>
-      <c r="I179" s="33"/>
-      <c r="K179" s="44" t="s">
+      <c r="G179" s="54"/>
+      <c r="H179" s="54"/>
+      <c r="I179" s="54"/>
+      <c r="K179" s="38" t="s">
         <v>31</v>
       </c>
       <c r="M179" s="11" t="s">
@@ -3799,12 +3820,12 @@
       </c>
     </row>
     <row r="180" spans="6:20">
-      <c r="F180" s="33" t="s">
+      <c r="F180" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="G180" s="33"/>
-      <c r="H180" s="33"/>
-      <c r="I180" s="33"/>
+      <c r="G180" s="54"/>
+      <c r="H180" s="54"/>
+      <c r="I180" s="54"/>
       <c r="M180" s="11" t="s">
         <v>36</v>
       </c>
@@ -4053,11 +4074,11 @@
       </c>
     </row>
     <row r="195" spans="1:20">
-      <c r="H195" s="33" t="s">
+      <c r="H195" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="I195" s="33"/>
-      <c r="K195" s="44" t="s">
+      <c r="I195" s="54"/>
+      <c r="K195" s="38" t="s">
         <v>57</v>
       </c>
       <c r="M195" s="11" t="s">
@@ -4210,19 +4231,19 @@
       <c r="H206" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K206" s="34" t="s">
+      <c r="K206" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="L206" s="34"/>
+      <c r="L206" s="57"/>
     </row>
     <row r="207" spans="1:20">
       <c r="H207" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K207" s="34" t="s">
+      <c r="K207" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="L207" s="34"/>
+      <c r="L207" s="57"/>
     </row>
     <row r="208" spans="1:20">
       <c r="F208" t="s">
@@ -4234,26 +4255,26 @@
       <c r="H208" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K208" s="34" t="s">
+      <c r="K208" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="L208" s="34"/>
+      <c r="L208" s="57"/>
     </row>
     <row r="209" spans="1:20">
       <c r="H209" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K209" s="34" t="s">
+      <c r="K209" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="L209" s="34"/>
+      <c r="L209" s="57"/>
     </row>
     <row r="210" spans="1:20">
       <c r="H210" s="14"/>
-      <c r="K210" s="34" t="s">
+      <c r="K210" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="L210" s="34"/>
+      <c r="L210" s="57"/>
     </row>
     <row r="212" spans="1:20">
       <c r="A212" s="26">
@@ -4548,1231 +4569,1231 @@
       <c r="H232" t="s">
         <v>29</v>
       </c>
-      <c r="I232" s="42" t="s">
+      <c r="I232" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="J232" s="42" t="s">
+      <c r="J232" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K232" s="42" t="s">
+      <c r="K232" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="L232" s="42" t="s">
+      <c r="L232" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="M232" s="42" t="s">
+      <c r="M232" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="O232" s="46" t="s">
+      <c r="O232" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="P232" s="42" t="s">
+      <c r="P232" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="Q232" s="42" t="s">
+      <c r="Q232" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="R232" s="42" t="s">
+      <c r="R232" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="S232" s="42" t="s">
+      <c r="S232" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="T232" s="42" t="s">
+      <c r="T232" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="V232" s="46" t="s">
+      <c r="V232" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="W232" s="42" t="s">
+      <c r="W232" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="X232" s="42" t="s">
+      <c r="X232" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="Y232" s="42" t="s">
+      <c r="Y232" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="Z232" s="42" t="s">
+      <c r="Z232" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="AA232" s="42" t="s">
+      <c r="AA232" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="AC232" s="46" t="s">
+      <c r="AC232" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="AD232" s="42" t="s">
+      <c r="AD232" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="AE232" s="42" t="s">
+      <c r="AE232" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="AF232" s="42" t="s">
+      <c r="AF232" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="AG232" s="42" t="s">
+      <c r="AG232" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="AH232" s="42" t="s">
+      <c r="AH232" s="36" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="233" spans="2:34">
-      <c r="I233" s="43" t="s">
+      <c r="I233" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="J233" s="43">
+      <c r="J233" s="37">
         <v>15000</v>
       </c>
-      <c r="K233" s="43">
-        <v>1</v>
-      </c>
-      <c r="L233" s="43" t="s">
+      <c r="K233" s="37">
+        <v>1</v>
+      </c>
+      <c r="L233" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="M233" s="43" t="s">
+      <c r="M233" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="P233" s="43" t="s">
+      <c r="P233" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="Q233" s="43" t="s">
+      <c r="Q233" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="R233" s="43">
-        <v>2</v>
-      </c>
-      <c r="S233" s="43" t="s">
+      <c r="R233" s="37">
+        <v>2</v>
+      </c>
+      <c r="S233" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="T233" s="43" t="s">
+      <c r="T233" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="W233" s="43" t="s">
+      <c r="W233" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="X233" s="43" t="s">
+      <c r="X233" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="Y233" s="43">
-        <v>2</v>
-      </c>
-      <c r="Z233" s="43" t="s">
+      <c r="Y233" s="37">
+        <v>2</v>
+      </c>
+      <c r="Z233" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AA233" s="43" t="s">
+      <c r="AA233" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AD233" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE233" s="43" t="s">
+      <c r="AD233" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE233" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF233" s="43" t="s">
+      <c r="AF233" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG233" s="43" t="s">
+      <c r="AG233" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH233" s="47">
+      <c r="AH233" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="234" spans="2:34">
-      <c r="I234" s="43" t="s">
+      <c r="I234" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="J234" s="43">
+      <c r="J234" s="37">
         <v>30000</v>
       </c>
-      <c r="K234" s="43">
-        <v>1</v>
-      </c>
-      <c r="L234" s="43" t="s">
+      <c r="K234" s="37">
+        <v>1</v>
+      </c>
+      <c r="L234" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="M234" s="43" t="s">
+      <c r="M234" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="P234" s="43" t="s">
+      <c r="P234" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="Q234" s="43" t="s">
+      <c r="Q234" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="R234" s="43">
-        <v>1</v>
-      </c>
-      <c r="S234" s="43" t="s">
+      <c r="R234" s="37">
+        <v>1</v>
+      </c>
+      <c r="S234" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="T234" s="43" t="s">
+      <c r="T234" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="W234" s="43" t="s">
+      <c r="W234" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="X234" s="43" t="s">
+      <c r="X234" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="Y234" s="43">
-        <v>1</v>
-      </c>
-      <c r="Z234" s="43" t="s">
+      <c r="Y234" s="37">
+        <v>1</v>
+      </c>
+      <c r="Z234" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AA234" s="43" t="s">
+      <c r="AA234" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AD234" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE234" s="43" t="s">
+      <c r="AD234" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE234" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF234" s="43" t="s">
+      <c r="AF234" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG234" s="43" t="s">
+      <c r="AG234" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH234" s="47">
+      <c r="AH234" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="235" spans="2:34">
-      <c r="I235" s="43" t="s">
+      <c r="I235" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="J235" s="43">
+      <c r="J235" s="37">
         <v>60000</v>
       </c>
-      <c r="K235" s="43">
-        <v>1</v>
-      </c>
-      <c r="L235" s="43" t="s">
+      <c r="K235" s="37">
+        <v>1</v>
+      </c>
+      <c r="L235" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="M235" s="43" t="s">
+      <c r="M235" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="P235" s="43" t="s">
+      <c r="P235" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="Q235" s="43" t="s">
+      <c r="Q235" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="R235" s="43">
-        <v>2</v>
-      </c>
-      <c r="S235" s="43" t="s">
+      <c r="R235" s="37">
+        <v>2</v>
+      </c>
+      <c r="S235" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="T235" s="43" t="s">
+      <c r="T235" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="W235" s="43" t="s">
+      <c r="W235" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="X235" s="43" t="s">
+      <c r="X235" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="Y235" s="43">
-        <v>2</v>
-      </c>
-      <c r="Z235" s="43" t="s">
+      <c r="Y235" s="37">
+        <v>2</v>
+      </c>
+      <c r="Z235" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AA235" s="43" t="s">
+      <c r="AA235" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AD235" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE235" s="43" t="s">
+      <c r="AD235" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE235" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF235" s="43" t="s">
+      <c r="AF235" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG235" s="43" t="s">
+      <c r="AG235" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH235" s="47">
+      <c r="AH235" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="236" spans="2:34">
-      <c r="I236" s="43" t="s">
+      <c r="I236" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="J236" s="43">
+      <c r="J236" s="37">
         <v>17000</v>
       </c>
-      <c r="K236" s="43">
-        <v>1</v>
-      </c>
-      <c r="L236" s="43" t="s">
+      <c r="K236" s="37">
+        <v>1</v>
+      </c>
+      <c r="L236" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="M236" s="43" t="s">
+      <c r="M236" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="P236" s="43" t="s">
+      <c r="P236" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="Q236" s="43" t="s">
+      <c r="Q236" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="R236" s="43">
-        <v>1</v>
-      </c>
-      <c r="S236" s="43" t="s">
+      <c r="R236" s="37">
+        <v>1</v>
+      </c>
+      <c r="S236" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="T236" s="43" t="s">
+      <c r="T236" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="W236" s="43" t="s">
+      <c r="W236" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="X236" s="43" t="s">
+      <c r="X236" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Y236" s="43">
-        <v>1</v>
-      </c>
-      <c r="Z236" s="43" t="s">
+      <c r="Y236" s="37">
+        <v>1</v>
+      </c>
+      <c r="Z236" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AA236" s="43" t="s">
+      <c r="AA236" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AD236" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE236" s="43" t="s">
+      <c r="AD236" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE236" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF236" s="43" t="s">
+      <c r="AF236" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG236" s="43" t="s">
+      <c r="AG236" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH236" s="47">
+      <c r="AH236" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="237" spans="2:34">
-      <c r="I237" s="43" t="s">
+      <c r="I237" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="J237" s="43">
+      <c r="J237" s="37">
         <v>23000</v>
       </c>
-      <c r="K237" s="43">
-        <v>1</v>
-      </c>
-      <c r="L237" s="43" t="s">
+      <c r="K237" s="37">
+        <v>1</v>
+      </c>
+      <c r="L237" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="M237" s="43" t="s">
+      <c r="M237" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="P237" s="43" t="s">
+      <c r="P237" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="Q237" s="43" t="s">
+      <c r="Q237" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="R237" s="43">
-        <v>1</v>
-      </c>
-      <c r="S237" s="43" t="s">
+      <c r="R237" s="37">
+        <v>1</v>
+      </c>
+      <c r="S237" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="T237" s="43" t="s">
+      <c r="T237" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="W237" s="43" t="s">
+      <c r="W237" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="X237" s="43" t="s">
+      <c r="X237" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Y237" s="43">
-        <v>1</v>
-      </c>
-      <c r="Z237" s="43" t="s">
+      <c r="Y237" s="37">
+        <v>1</v>
+      </c>
+      <c r="Z237" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AA237" s="43" t="s">
+      <c r="AA237" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AD237" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE237" s="43" t="s">
+      <c r="AD237" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE237" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF237" s="43" t="s">
+      <c r="AF237" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG237" s="43" t="s">
+      <c r="AG237" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH237" s="47">
+      <c r="AH237" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="238" spans="2:34">
-      <c r="I238" s="43" t="s">
+      <c r="I238" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="J238" s="43">
+      <c r="J238" s="37">
         <v>25000</v>
       </c>
-      <c r="K238" s="43">
-        <v>2</v>
-      </c>
-      <c r="L238" s="43" t="s">
+      <c r="K238" s="37">
+        <v>2</v>
+      </c>
+      <c r="L238" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="M238" s="43" t="s">
+      <c r="M238" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="P238" s="43" t="s">
+      <c r="P238" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="Q238" s="43" t="s">
+      <c r="Q238" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="R238" s="43">
-        <v>2</v>
-      </c>
-      <c r="S238" s="43" t="s">
+      <c r="R238" s="37">
+        <v>2</v>
+      </c>
+      <c r="S238" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="T238" s="43" t="s">
+      <c r="T238" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="W238" s="43" t="s">
+      <c r="W238" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="X238" s="43" t="s">
+      <c r="X238" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Y238" s="43">
-        <v>2</v>
-      </c>
-      <c r="Z238" s="43" t="s">
+      <c r="Y238" s="37">
+        <v>2</v>
+      </c>
+      <c r="Z238" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AA238" s="43" t="s">
+      <c r="AA238" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AD238" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE238" s="43" t="s">
+      <c r="AD238" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE238" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF238" s="43" t="s">
+      <c r="AF238" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG238" s="43" t="s">
+      <c r="AG238" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH238" s="47">
+      <c r="AH238" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="239" spans="2:34">
-      <c r="I239" s="43" t="s">
+      <c r="I239" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="J239" s="43">
+      <c r="J239" s="37">
         <v>32000</v>
       </c>
-      <c r="K239" s="43">
-        <v>2</v>
-      </c>
-      <c r="L239" s="43" t="s">
+      <c r="K239" s="37">
+        <v>2</v>
+      </c>
+      <c r="L239" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="M239" s="43" t="s">
+      <c r="M239" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="W239" s="43" t="s">
+      <c r="W239" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="X239" s="43" t="s">
+      <c r="X239" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="Y239" s="43">
-        <v>1</v>
-      </c>
-      <c r="Z239" s="43" t="s">
+      <c r="Y239" s="37">
+        <v>1</v>
+      </c>
+      <c r="Z239" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AA239" s="43" t="s">
+      <c r="AA239" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AD239" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE239" s="43" t="s">
+      <c r="AD239" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE239" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF239" s="43" t="s">
+      <c r="AF239" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG239" s="43" t="s">
+      <c r="AG239" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH239" s="47">
+      <c r="AH239" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="240" spans="2:34">
-      <c r="I240" s="43" t="s">
+      <c r="I240" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="J240" s="43">
+      <c r="J240" s="37">
         <v>16000</v>
       </c>
-      <c r="K240" s="43">
-        <v>2</v>
-      </c>
-      <c r="L240" s="43" t="s">
+      <c r="K240" s="37">
+        <v>2</v>
+      </c>
+      <c r="L240" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="M240" s="43" t="s">
+      <c r="M240" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="W240" s="43" t="s">
+      <c r="W240" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="X240" s="43" t="s">
+      <c r="X240" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="Y240" s="43">
-        <v>2</v>
-      </c>
-      <c r="Z240" s="43" t="s">
+      <c r="Y240" s="37">
+        <v>2</v>
+      </c>
+      <c r="Z240" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AA240" s="43" t="s">
+      <c r="AA240" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AD240" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE240" s="43" t="s">
+      <c r="AD240" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE240" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF240" s="43" t="s">
+      <c r="AF240" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG240" s="43" t="s">
+      <c r="AG240" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH240" s="47">
+      <c r="AH240" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="241" spans="9:34">
-      <c r="I241" s="43" t="s">
+      <c r="I241" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="J241" s="43">
+      <c r="J241" s="37">
         <v>20000</v>
       </c>
-      <c r="K241" s="43">
-        <v>2</v>
-      </c>
-      <c r="L241" s="43" t="s">
+      <c r="K241" s="37">
+        <v>2</v>
+      </c>
+      <c r="L241" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="M241" s="43" t="s">
+      <c r="M241" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="W241" s="43" t="s">
+      <c r="W241" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="X241" s="43" t="s">
+      <c r="X241" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="Y241" s="43">
-        <v>1</v>
-      </c>
-      <c r="Z241" s="43" t="s">
+      <c r="Y241" s="37">
+        <v>1</v>
+      </c>
+      <c r="Z241" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AA241" s="43" t="s">
+      <c r="AA241" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AD241" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE241" s="43" t="s">
+      <c r="AD241" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE241" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF241" s="43" t="s">
+      <c r="AF241" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG241" s="43" t="s">
+      <c r="AG241" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH241" s="47">
+      <c r="AH241" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="242" spans="9:34">
-      <c r="I242" s="43" t="s">
+      <c r="I242" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="J242" s="43">
+      <c r="J242" s="37">
         <v>40000</v>
       </c>
-      <c r="K242" s="43">
-        <v>2</v>
-      </c>
-      <c r="L242" s="43" t="s">
+      <c r="K242" s="37">
+        <v>2</v>
+      </c>
+      <c r="L242" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="M242" s="43" t="s">
+      <c r="M242" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="W242" s="43" t="s">
+      <c r="W242" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="X242" s="43" t="s">
+      <c r="X242" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Y242" s="43">
-        <v>2</v>
-      </c>
-      <c r="Z242" s="43" t="s">
+      <c r="Y242" s="37">
+        <v>2</v>
+      </c>
+      <c r="Z242" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AA242" s="43" t="s">
+      <c r="AA242" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AD242" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE242" s="43" t="s">
+      <c r="AD242" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE242" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF242" s="43" t="s">
+      <c r="AF242" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG242" s="43" t="s">
+      <c r="AG242" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH242" s="47">
+      <c r="AH242" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="243" spans="9:34">
-      <c r="I243" s="48"/>
-      <c r="J243" s="48"/>
-      <c r="K243" s="48"/>
-      <c r="L243" s="48"/>
-      <c r="M243" s="48"/>
-      <c r="W243" s="48"/>
-      <c r="X243" s="48"/>
-      <c r="Y243" s="48"/>
-      <c r="Z243" s="48"/>
-      <c r="AA243" s="48"/>
-      <c r="AD243" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE243" s="43" t="s">
+      <c r="I243" s="42"/>
+      <c r="J243" s="42"/>
+      <c r="K243" s="42"/>
+      <c r="L243" s="42"/>
+      <c r="M243" s="42"/>
+      <c r="W243" s="42"/>
+      <c r="X243" s="42"/>
+      <c r="Y243" s="42"/>
+      <c r="Z243" s="42"/>
+      <c r="AA243" s="42"/>
+      <c r="AD243" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE243" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF243" s="43" t="s">
+      <c r="AF243" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG243" s="43" t="s">
+      <c r="AG243" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH243" s="47">
+      <c r="AH243" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="244" spans="9:34">
-      <c r="I244" s="48"/>
-      <c r="J244" s="48"/>
-      <c r="K244" s="48"/>
-      <c r="L244" s="48"/>
-      <c r="M244" s="48"/>
-      <c r="W244" s="48"/>
-      <c r="X244" s="48"/>
-      <c r="Y244" s="48"/>
-      <c r="Z244" s="48"/>
-      <c r="AA244" s="48"/>
-      <c r="AD244" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE244" s="43" t="s">
+      <c r="I244" s="42"/>
+      <c r="J244" s="42"/>
+      <c r="K244" s="42"/>
+      <c r="L244" s="42"/>
+      <c r="M244" s="42"/>
+      <c r="W244" s="42"/>
+      <c r="X244" s="42"/>
+      <c r="Y244" s="42"/>
+      <c r="Z244" s="42"/>
+      <c r="AA244" s="42"/>
+      <c r="AD244" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE244" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF244" s="43" t="s">
+      <c r="AF244" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG244" s="43" t="s">
+      <c r="AG244" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH244" s="47">
+      <c r="AH244" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="245" spans="9:34">
-      <c r="I245" s="48"/>
-      <c r="J245" s="48"/>
-      <c r="K245" s="48"/>
-      <c r="L245" s="48"/>
-      <c r="M245" s="48"/>
-      <c r="W245" s="48"/>
-      <c r="X245" s="48"/>
-      <c r="Y245" s="48"/>
-      <c r="Z245" s="48"/>
-      <c r="AA245" s="48"/>
-      <c r="AD245" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE245" s="43" t="s">
+      <c r="I245" s="42"/>
+      <c r="J245" s="42"/>
+      <c r="K245" s="42"/>
+      <c r="L245" s="42"/>
+      <c r="M245" s="42"/>
+      <c r="W245" s="42"/>
+      <c r="X245" s="42"/>
+      <c r="Y245" s="42"/>
+      <c r="Z245" s="42"/>
+      <c r="AA245" s="42"/>
+      <c r="AD245" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE245" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF245" s="43" t="s">
+      <c r="AF245" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG245" s="43" t="s">
+      <c r="AG245" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH245" s="47">
+      <c r="AH245" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="246" spans="9:34">
-      <c r="I246" s="48"/>
-      <c r="J246" s="48"/>
-      <c r="K246" s="48"/>
-      <c r="L246" s="48"/>
-      <c r="M246" s="48"/>
-      <c r="W246" s="48"/>
-      <c r="X246" s="48"/>
-      <c r="Y246" s="48"/>
-      <c r="Z246" s="48"/>
-      <c r="AA246" s="48"/>
-      <c r="AD246" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE246" s="43" t="s">
+      <c r="I246" s="42"/>
+      <c r="J246" s="42"/>
+      <c r="K246" s="42"/>
+      <c r="L246" s="42"/>
+      <c r="M246" s="42"/>
+      <c r="W246" s="42"/>
+      <c r="X246" s="42"/>
+      <c r="Y246" s="42"/>
+      <c r="Z246" s="42"/>
+      <c r="AA246" s="42"/>
+      <c r="AD246" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE246" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF246" s="43" t="s">
+      <c r="AF246" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG246" s="43" t="s">
+      <c r="AG246" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH246" s="47">
+      <c r="AH246" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="247" spans="9:34">
-      <c r="I247" s="48"/>
-      <c r="J247" s="48"/>
-      <c r="K247" s="48"/>
-      <c r="L247" s="48"/>
-      <c r="M247" s="48"/>
-      <c r="W247" s="48"/>
-      <c r="X247" s="48"/>
-      <c r="Y247" s="48"/>
-      <c r="Z247" s="48"/>
-      <c r="AA247" s="48"/>
-      <c r="AD247" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE247" s="43" t="s">
+      <c r="I247" s="42"/>
+      <c r="J247" s="42"/>
+      <c r="K247" s="42"/>
+      <c r="L247" s="42"/>
+      <c r="M247" s="42"/>
+      <c r="W247" s="42"/>
+      <c r="X247" s="42"/>
+      <c r="Y247" s="42"/>
+      <c r="Z247" s="42"/>
+      <c r="AA247" s="42"/>
+      <c r="AD247" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE247" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF247" s="43" t="s">
+      <c r="AF247" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG247" s="43" t="s">
+      <c r="AG247" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH247" s="47">
+      <c r="AH247" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="248" spans="9:34">
-      <c r="I248" s="48"/>
-      <c r="J248" s="48"/>
-      <c r="K248" s="48"/>
-      <c r="L248" s="48"/>
-      <c r="M248" s="48"/>
-      <c r="W248" s="48"/>
-      <c r="X248" s="48"/>
-      <c r="Y248" s="48"/>
-      <c r="Z248" s="48"/>
-      <c r="AA248" s="48"/>
-      <c r="AD248" s="43">
-        <v>1</v>
-      </c>
-      <c r="AE248" s="43" t="s">
+      <c r="I248" s="42"/>
+      <c r="J248" s="42"/>
+      <c r="K248" s="42"/>
+      <c r="L248" s="42"/>
+      <c r="M248" s="42"/>
+      <c r="W248" s="42"/>
+      <c r="X248" s="42"/>
+      <c r="Y248" s="42"/>
+      <c r="Z248" s="42"/>
+      <c r="AA248" s="42"/>
+      <c r="AD248" s="37">
+        <v>1</v>
+      </c>
+      <c r="AE248" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF248" s="43" t="s">
+      <c r="AF248" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG248" s="43" t="s">
+      <c r="AG248" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH248" s="47">
+      <c r="AH248" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="249" spans="9:34">
-      <c r="I249" s="48"/>
-      <c r="J249" s="48"/>
-      <c r="K249" s="48"/>
-      <c r="L249" s="48"/>
-      <c r="M249" s="48"/>
-      <c r="W249" s="48"/>
-      <c r="X249" s="48"/>
-      <c r="Y249" s="48"/>
-      <c r="Z249" s="48"/>
-      <c r="AA249" s="48"/>
-      <c r="AD249" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE249" s="43" t="s">
+      <c r="I249" s="42"/>
+      <c r="J249" s="42"/>
+      <c r="K249" s="42"/>
+      <c r="L249" s="42"/>
+      <c r="M249" s="42"/>
+      <c r="W249" s="42"/>
+      <c r="X249" s="42"/>
+      <c r="Y249" s="42"/>
+      <c r="Z249" s="42"/>
+      <c r="AA249" s="42"/>
+      <c r="AD249" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE249" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF249" s="43" t="s">
+      <c r="AF249" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG249" s="43" t="s">
+      <c r="AG249" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH249" s="47">
+      <c r="AH249" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="250" spans="9:34">
-      <c r="I250" s="48"/>
-      <c r="J250" s="48"/>
-      <c r="K250" s="48"/>
-      <c r="L250" s="48"/>
-      <c r="M250" s="48"/>
-      <c r="W250" s="48"/>
-      <c r="X250" s="48"/>
-      <c r="Y250" s="48"/>
-      <c r="Z250" s="48"/>
-      <c r="AA250" s="48"/>
-      <c r="AD250" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE250" s="43" t="s">
+      <c r="I250" s="42"/>
+      <c r="J250" s="42"/>
+      <c r="K250" s="42"/>
+      <c r="L250" s="42"/>
+      <c r="M250" s="42"/>
+      <c r="W250" s="42"/>
+      <c r="X250" s="42"/>
+      <c r="Y250" s="42"/>
+      <c r="Z250" s="42"/>
+      <c r="AA250" s="42"/>
+      <c r="AD250" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE250" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF250" s="43" t="s">
+      <c r="AF250" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG250" s="43" t="s">
+      <c r="AG250" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH250" s="47">
+      <c r="AH250" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="251" spans="9:34">
-      <c r="I251" s="48"/>
-      <c r="J251" s="48"/>
-      <c r="K251" s="48"/>
-      <c r="L251" s="48"/>
-      <c r="M251" s="48"/>
-      <c r="W251" s="48"/>
-      <c r="X251" s="48"/>
-      <c r="Y251" s="48"/>
-      <c r="Z251" s="48"/>
-      <c r="AA251" s="48"/>
-      <c r="AD251" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE251" s="43" t="s">
+      <c r="I251" s="42"/>
+      <c r="J251" s="42"/>
+      <c r="K251" s="42"/>
+      <c r="L251" s="42"/>
+      <c r="M251" s="42"/>
+      <c r="W251" s="42"/>
+      <c r="X251" s="42"/>
+      <c r="Y251" s="42"/>
+      <c r="Z251" s="42"/>
+      <c r="AA251" s="42"/>
+      <c r="AD251" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE251" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF251" s="43" t="s">
+      <c r="AF251" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG251" s="43" t="s">
+      <c r="AG251" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH251" s="47">
+      <c r="AH251" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="252" spans="9:34">
-      <c r="I252" s="48"/>
-      <c r="J252" s="48"/>
-      <c r="K252" s="48"/>
-      <c r="L252" s="48"/>
-      <c r="M252" s="48"/>
-      <c r="W252" s="48"/>
-      <c r="X252" s="48"/>
-      <c r="Y252" s="48"/>
-      <c r="Z252" s="48"/>
-      <c r="AA252" s="48"/>
-      <c r="AD252" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE252" s="43" t="s">
+      <c r="I252" s="42"/>
+      <c r="J252" s="42"/>
+      <c r="K252" s="42"/>
+      <c r="L252" s="42"/>
+      <c r="M252" s="42"/>
+      <c r="W252" s="42"/>
+      <c r="X252" s="42"/>
+      <c r="Y252" s="42"/>
+      <c r="Z252" s="42"/>
+      <c r="AA252" s="42"/>
+      <c r="AD252" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE252" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF252" s="43" t="s">
+      <c r="AF252" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG252" s="43" t="s">
+      <c r="AG252" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH252" s="47">
+      <c r="AH252" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="253" spans="9:34">
-      <c r="I253" s="48"/>
-      <c r="J253" s="48"/>
-      <c r="K253" s="48"/>
-      <c r="L253" s="48"/>
-      <c r="M253" s="48"/>
-      <c r="W253" s="48"/>
-      <c r="X253" s="48"/>
-      <c r="Y253" s="48"/>
-      <c r="Z253" s="48"/>
-      <c r="AA253" s="48"/>
-      <c r="AD253" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE253" s="43" t="s">
+      <c r="I253" s="42"/>
+      <c r="J253" s="42"/>
+      <c r="K253" s="42"/>
+      <c r="L253" s="42"/>
+      <c r="M253" s="42"/>
+      <c r="W253" s="42"/>
+      <c r="X253" s="42"/>
+      <c r="Y253" s="42"/>
+      <c r="Z253" s="42"/>
+      <c r="AA253" s="42"/>
+      <c r="AD253" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE253" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF253" s="43" t="s">
+      <c r="AF253" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG253" s="43" t="s">
+      <c r="AG253" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH253" s="47">
+      <c r="AH253" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="254" spans="9:34">
-      <c r="I254" s="48"/>
-      <c r="J254" s="48"/>
-      <c r="K254" s="48"/>
-      <c r="L254" s="48"/>
-      <c r="M254" s="48"/>
-      <c r="W254" s="48"/>
-      <c r="X254" s="48"/>
-      <c r="Y254" s="48"/>
-      <c r="Z254" s="48"/>
-      <c r="AA254" s="48"/>
-      <c r="AD254" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE254" s="43" t="s">
+      <c r="I254" s="42"/>
+      <c r="J254" s="42"/>
+      <c r="K254" s="42"/>
+      <c r="L254" s="42"/>
+      <c r="M254" s="42"/>
+      <c r="W254" s="42"/>
+      <c r="X254" s="42"/>
+      <c r="Y254" s="42"/>
+      <c r="Z254" s="42"/>
+      <c r="AA254" s="42"/>
+      <c r="AD254" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE254" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF254" s="43" t="s">
+      <c r="AF254" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG254" s="43" t="s">
+      <c r="AG254" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH254" s="47">
+      <c r="AH254" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="255" spans="9:34">
-      <c r="I255" s="48"/>
-      <c r="J255" s="48"/>
-      <c r="K255" s="48"/>
-      <c r="L255" s="48"/>
-      <c r="M255" s="48"/>
-      <c r="W255" s="48"/>
-      <c r="X255" s="48"/>
-      <c r="Y255" s="48"/>
-      <c r="Z255" s="48"/>
-      <c r="AA255" s="48"/>
-      <c r="AD255" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE255" s="43" t="s">
+      <c r="I255" s="42"/>
+      <c r="J255" s="42"/>
+      <c r="K255" s="42"/>
+      <c r="L255" s="42"/>
+      <c r="M255" s="42"/>
+      <c r="W255" s="42"/>
+      <c r="X255" s="42"/>
+      <c r="Y255" s="42"/>
+      <c r="Z255" s="42"/>
+      <c r="AA255" s="42"/>
+      <c r="AD255" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE255" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF255" s="43" t="s">
+      <c r="AF255" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG255" s="43" t="s">
+      <c r="AG255" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH255" s="47">
+      <c r="AH255" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="256" spans="9:34">
-      <c r="I256" s="48"/>
-      <c r="J256" s="48"/>
-      <c r="K256" s="48"/>
-      <c r="L256" s="48"/>
-      <c r="M256" s="48"/>
-      <c r="W256" s="48"/>
-      <c r="X256" s="48"/>
-      <c r="Y256" s="48"/>
-      <c r="Z256" s="48"/>
-      <c r="AA256" s="48"/>
-      <c r="AD256" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE256" s="43" t="s">
+      <c r="I256" s="42"/>
+      <c r="J256" s="42"/>
+      <c r="K256" s="42"/>
+      <c r="L256" s="42"/>
+      <c r="M256" s="42"/>
+      <c r="W256" s="42"/>
+      <c r="X256" s="42"/>
+      <c r="Y256" s="42"/>
+      <c r="Z256" s="42"/>
+      <c r="AA256" s="42"/>
+      <c r="AD256" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE256" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF256" s="43" t="s">
+      <c r="AF256" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG256" s="43" t="s">
+      <c r="AG256" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH256" s="47">
+      <c r="AH256" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="257" spans="1:34">
-      <c r="I257" s="48"/>
-      <c r="J257" s="48"/>
-      <c r="K257" s="48"/>
-      <c r="L257" s="48"/>
-      <c r="M257" s="48"/>
-      <c r="W257" s="48"/>
-      <c r="X257" s="48"/>
-      <c r="Y257" s="48"/>
-      <c r="Z257" s="48"/>
-      <c r="AA257" s="48"/>
-      <c r="AD257" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE257" s="43" t="s">
+      <c r="I257" s="42"/>
+      <c r="J257" s="42"/>
+      <c r="K257" s="42"/>
+      <c r="L257" s="42"/>
+      <c r="M257" s="42"/>
+      <c r="W257" s="42"/>
+      <c r="X257" s="42"/>
+      <c r="Y257" s="42"/>
+      <c r="Z257" s="42"/>
+      <c r="AA257" s="42"/>
+      <c r="AD257" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE257" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF257" s="43" t="s">
+      <c r="AF257" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG257" s="43" t="s">
+      <c r="AG257" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH257" s="47">
+      <c r="AH257" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="258" spans="1:34">
-      <c r="I258" s="48"/>
-      <c r="J258" s="48"/>
-      <c r="K258" s="48"/>
-      <c r="L258" s="48"/>
-      <c r="M258" s="48"/>
-      <c r="W258" s="48"/>
-      <c r="X258" s="48"/>
-      <c r="Y258" s="48"/>
-      <c r="Z258" s="48"/>
-      <c r="AA258" s="48"/>
-      <c r="AD258" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE258" s="43" t="s">
+      <c r="I258" s="42"/>
+      <c r="J258" s="42"/>
+      <c r="K258" s="42"/>
+      <c r="L258" s="42"/>
+      <c r="M258" s="42"/>
+      <c r="W258" s="42"/>
+      <c r="X258" s="42"/>
+      <c r="Y258" s="42"/>
+      <c r="Z258" s="42"/>
+      <c r="AA258" s="42"/>
+      <c r="AD258" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE258" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF258" s="43" t="s">
+      <c r="AF258" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG258" s="43" t="s">
+      <c r="AG258" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH258" s="47">
+      <c r="AH258" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="259" spans="1:34">
-      <c r="I259" s="48"/>
-      <c r="J259" s="48"/>
-      <c r="K259" s="48"/>
-      <c r="L259" s="48"/>
-      <c r="M259" s="48"/>
-      <c r="W259" s="48"/>
-      <c r="X259" s="48"/>
-      <c r="Y259" s="48"/>
-      <c r="Z259" s="48"/>
-      <c r="AA259" s="48"/>
-      <c r="AD259" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE259" s="43" t="s">
+      <c r="I259" s="42"/>
+      <c r="J259" s="42"/>
+      <c r="K259" s="42"/>
+      <c r="L259" s="42"/>
+      <c r="M259" s="42"/>
+      <c r="W259" s="42"/>
+      <c r="X259" s="42"/>
+      <c r="Y259" s="42"/>
+      <c r="Z259" s="42"/>
+      <c r="AA259" s="42"/>
+      <c r="AD259" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE259" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF259" s="43" t="s">
+      <c r="AF259" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG259" s="43" t="s">
+      <c r="AG259" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH259" s="47">
+      <c r="AH259" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="260" spans="1:34">
-      <c r="I260" s="48"/>
-      <c r="J260" s="48"/>
-      <c r="K260" s="48"/>
-      <c r="L260" s="48"/>
-      <c r="M260" s="48"/>
-      <c r="W260" s="48"/>
-      <c r="X260" s="48"/>
-      <c r="Y260" s="48"/>
-      <c r="Z260" s="48"/>
-      <c r="AA260" s="48"/>
-      <c r="AD260" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE260" s="43" t="s">
+      <c r="I260" s="42"/>
+      <c r="J260" s="42"/>
+      <c r="K260" s="42"/>
+      <c r="L260" s="42"/>
+      <c r="M260" s="42"/>
+      <c r="W260" s="42"/>
+      <c r="X260" s="42"/>
+      <c r="Y260" s="42"/>
+      <c r="Z260" s="42"/>
+      <c r="AA260" s="42"/>
+      <c r="AD260" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE260" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF260" s="43" t="s">
+      <c r="AF260" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="AG260" s="43" t="s">
+      <c r="AG260" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH260" s="47">
+      <c r="AH260" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="261" spans="1:34">
-      <c r="I261" s="48"/>
-      <c r="J261" s="48"/>
-      <c r="K261" s="48"/>
-      <c r="L261" s="48"/>
-      <c r="M261" s="48"/>
-      <c r="Y261" s="48"/>
-      <c r="Z261" s="48"/>
-      <c r="AA261" s="48"/>
-      <c r="AD261" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE261" s="43" t="s">
+      <c r="I261" s="42"/>
+      <c r="J261" s="42"/>
+      <c r="K261" s="42"/>
+      <c r="L261" s="42"/>
+      <c r="M261" s="42"/>
+      <c r="Y261" s="42"/>
+      <c r="Z261" s="42"/>
+      <c r="AA261" s="42"/>
+      <c r="AD261" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE261" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF261" s="43" t="s">
+      <c r="AF261" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG261" s="43" t="s">
+      <c r="AG261" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH261" s="47">
+      <c r="AH261" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="262" spans="1:34">
-      <c r="I262" s="48"/>
-      <c r="J262" s="48"/>
-      <c r="K262" s="48"/>
-      <c r="L262" s="48"/>
-      <c r="M262" s="48"/>
-      <c r="Y262" s="48"/>
-      <c r="Z262" s="48"/>
-      <c r="AA262" s="48"/>
-      <c r="AD262" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE262" s="43" t="s">
+      <c r="I262" s="42"/>
+      <c r="J262" s="42"/>
+      <c r="K262" s="42"/>
+      <c r="L262" s="42"/>
+      <c r="M262" s="42"/>
+      <c r="Y262" s="42"/>
+      <c r="Z262" s="42"/>
+      <c r="AA262" s="42"/>
+      <c r="AD262" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE262" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF262" s="43" t="s">
+      <c r="AF262" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG262" s="43" t="s">
+      <c r="AG262" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH262" s="47">
+      <c r="AH262" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="263" spans="1:34">
-      <c r="I263" s="48"/>
-      <c r="J263" s="48"/>
-      <c r="K263" s="48"/>
-      <c r="L263" s="48"/>
-      <c r="M263" s="48"/>
-      <c r="Y263" s="48"/>
-      <c r="Z263" s="48"/>
-      <c r="AA263" s="48"/>
-      <c r="AD263" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE263" s="43" t="s">
+      <c r="I263" s="42"/>
+      <c r="J263" s="42"/>
+      <c r="K263" s="42"/>
+      <c r="L263" s="42"/>
+      <c r="M263" s="42"/>
+      <c r="Y263" s="42"/>
+      <c r="Z263" s="42"/>
+      <c r="AA263" s="42"/>
+      <c r="AD263" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE263" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF263" s="43" t="s">
+      <c r="AF263" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG263" s="43" t="s">
+      <c r="AG263" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH263" s="47">
+      <c r="AH263" s="41">
         <v>45627</v>
       </c>
     </row>
     <row r="264" spans="1:34">
-      <c r="I264" s="48"/>
-      <c r="J264" s="48"/>
-      <c r="K264" s="48"/>
-      <c r="L264" s="48"/>
-      <c r="M264" s="48"/>
-      <c r="Y264" s="48"/>
-      <c r="Z264" s="48"/>
-      <c r="AA264" s="48"/>
-      <c r="AD264" s="43">
-        <v>2</v>
-      </c>
-      <c r="AE264" s="43" t="s">
+      <c r="I264" s="42"/>
+      <c r="J264" s="42"/>
+      <c r="K264" s="42"/>
+      <c r="L264" s="42"/>
+      <c r="M264" s="42"/>
+      <c r="Y264" s="42"/>
+      <c r="Z264" s="42"/>
+      <c r="AA264" s="42"/>
+      <c r="AD264" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE264" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AF264" s="43" t="s">
+      <c r="AF264" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="AG264" s="43" t="s">
+      <c r="AG264" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="AH264" s="47">
+      <c r="AH264" s="41">
         <v>45413</v>
       </c>
     </row>
     <row r="265" spans="1:34">
-      <c r="I265" s="48"/>
-      <c r="J265" s="48"/>
-      <c r="K265" s="48"/>
-      <c r="L265" s="48"/>
-      <c r="M265" s="48"/>
-      <c r="Y265" s="48"/>
-      <c r="Z265" s="48"/>
-      <c r="AA265" s="48"/>
+      <c r="I265" s="42"/>
+      <c r="J265" s="42"/>
+      <c r="K265" s="42"/>
+      <c r="L265" s="42"/>
+      <c r="M265" s="42"/>
+      <c r="Y265" s="42"/>
+      <c r="Z265" s="42"/>
+      <c r="AA265" s="42"/>
     </row>
     <row r="266" spans="1:34">
       <c r="A266" s="26">
@@ -5781,50 +5802,50 @@
       <c r="B266" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L266" s="48"/>
-      <c r="M266" s="48"/>
-      <c r="X266" s="48"/>
-      <c r="Y266" s="48"/>
-      <c r="Z266" s="48"/>
-      <c r="AA266" s="48"/>
+      <c r="L266" s="42"/>
+      <c r="M266" s="42"/>
+      <c r="X266" s="42"/>
+      <c r="Y266" s="42"/>
+      <c r="Z266" s="42"/>
+      <c r="AA266" s="42"/>
     </row>
     <row r="267" spans="1:34">
       <c r="B267" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L267" s="48"/>
-      <c r="M267" s="48"/>
-      <c r="X267" s="48"/>
-      <c r="Y267" s="48"/>
-      <c r="Z267" s="48"/>
-      <c r="AA267" s="48"/>
+      <c r="L267" s="42"/>
+      <c r="M267" s="42"/>
+      <c r="X267" s="42"/>
+      <c r="Y267" s="42"/>
+      <c r="Z267" s="42"/>
+      <c r="AA267" s="42"/>
     </row>
     <row r="268" spans="1:34">
-      <c r="L268" s="48"/>
-      <c r="M268" s="48"/>
-      <c r="X268" s="48"/>
-      <c r="Y268" s="48"/>
-      <c r="Z268" s="48"/>
-      <c r="AA268" s="48"/>
+      <c r="L268" s="42"/>
+      <c r="M268" s="42"/>
+      <c r="X268" s="42"/>
+      <c r="Y268" s="42"/>
+      <c r="Z268" s="42"/>
+      <c r="AA268" s="42"/>
     </row>
     <row r="269" spans="1:34">
       <c r="B269" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L269" s="48"/>
-      <c r="M269" s="48"/>
-      <c r="X269" s="48"/>
-      <c r="Y269" s="48"/>
-      <c r="Z269" s="48"/>
-      <c r="AA269" s="48"/>
+      <c r="L269" s="42"/>
+      <c r="M269" s="42"/>
+      <c r="X269" s="42"/>
+      <c r="Y269" s="42"/>
+      <c r="Z269" s="42"/>
+      <c r="AA269" s="42"/>
     </row>
     <row r="270" spans="1:34">
-      <c r="L270" s="48"/>
-      <c r="M270" s="48"/>
-      <c r="X270" s="48"/>
-      <c r="Y270" s="48"/>
-      <c r="Z270" s="48"/>
-      <c r="AA270" s="48"/>
+      <c r="L270" s="42"/>
+      <c r="M270" s="42"/>
+      <c r="X270" s="42"/>
+      <c r="Y270" s="42"/>
+      <c r="Z270" s="42"/>
+      <c r="AA270" s="42"/>
     </row>
     <row r="271" spans="1:34">
       <c r="E271" t="s">
@@ -5833,13 +5854,13 @@
       <c r="F271" t="s">
         <v>154</v>
       </c>
-      <c r="L271" s="48"/>
-      <c r="M271" s="48"/>
-      <c r="W271" s="48"/>
-      <c r="X271" s="48"/>
-      <c r="Y271" s="48"/>
-      <c r="Z271" s="48"/>
-      <c r="AA271" s="48"/>
+      <c r="L271" s="42"/>
+      <c r="M271" s="42"/>
+      <c r="W271" s="42"/>
+      <c r="X271" s="42"/>
+      <c r="Y271" s="42"/>
+      <c r="Z271" s="42"/>
+      <c r="AA271" s="42"/>
     </row>
     <row r="272" spans="1:34">
       <c r="E272" t="s">
@@ -5848,187 +5869,187 @@
       <c r="F272" t="s">
         <v>84</v>
       </c>
-      <c r="L272" s="48"/>
-      <c r="M272" s="48"/>
-      <c r="W272" s="48"/>
-      <c r="X272" s="48"/>
-      <c r="Y272" s="48"/>
-      <c r="Z272" s="48"/>
-      <c r="AA272" s="48"/>
+      <c r="L272" s="42"/>
+      <c r="M272" s="42"/>
+      <c r="W272" s="42"/>
+      <c r="X272" s="42"/>
+      <c r="Y272" s="42"/>
+      <c r="Z272" s="42"/>
+      <c r="AA272" s="42"/>
     </row>
     <row r="273" spans="2:27">
-      <c r="I273" s="48"/>
-      <c r="J273" s="48"/>
-      <c r="K273" s="48"/>
-      <c r="L273" s="48"/>
-      <c r="M273" s="48"/>
-      <c r="W273" s="48"/>
-      <c r="X273" s="48"/>
-      <c r="Y273" s="48"/>
-      <c r="Z273" s="48"/>
-      <c r="AA273" s="48"/>
+      <c r="I273" s="42"/>
+      <c r="J273" s="42"/>
+      <c r="K273" s="42"/>
+      <c r="L273" s="42"/>
+      <c r="M273" s="42"/>
+      <c r="W273" s="42"/>
+      <c r="X273" s="42"/>
+      <c r="Y273" s="42"/>
+      <c r="Z273" s="42"/>
+      <c r="AA273" s="42"/>
     </row>
     <row r="274" spans="2:27">
       <c r="D274" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E274" s="33" t="s">
+      <c r="E274" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="F274" s="33"/>
-      <c r="G274" s="33"/>
-      <c r="H274" s="33"/>
-      <c r="I274" s="33"/>
-      <c r="J274" s="33"/>
-      <c r="K274" s="51" t="s">
+      <c r="F274" s="54"/>
+      <c r="G274" s="54"/>
+      <c r="H274" s="54"/>
+      <c r="I274" s="54"/>
+      <c r="J274" s="54"/>
+      <c r="K274" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="L274" s="51" t="s">
+      <c r="L274" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="M274" s="52" t="s">
+      <c r="M274" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="N274" s="52"/>
+      <c r="N274" s="59"/>
       <c r="P274" t="s">
         <v>30</v>
       </c>
-      <c r="Q274" s="55" t="s">
+      <c r="Q274" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="R274" s="55"/>
-      <c r="S274" s="55"/>
-      <c r="T274" s="54"/>
-      <c r="U274" s="51" t="s">
+      <c r="R274" s="58"/>
+      <c r="S274" s="58"/>
+      <c r="T274" s="56"/>
+      <c r="U274" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="V274" s="51" t="s">
+      <c r="V274" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="W274" s="34" t="s">
+      <c r="W274" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="X274" s="34"/>
-      <c r="Y274" s="48"/>
-      <c r="Z274" s="48"/>
-      <c r="AA274" s="48"/>
+      <c r="X274" s="57"/>
+      <c r="Y274" s="42"/>
+      <c r="Z274" s="42"/>
+      <c r="AA274" s="42"/>
     </row>
     <row r="275" spans="2:27">
-      <c r="E275" s="33" t="s">
+      <c r="E275" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="F275" s="33"/>
-      <c r="G275" s="33"/>
-      <c r="H275" s="33"/>
-      <c r="I275" s="33"/>
-      <c r="J275" s="33"/>
-      <c r="K275" s="49">
+      <c r="F275" s="54"/>
+      <c r="G275" s="54"/>
+      <c r="H275" s="54"/>
+      <c r="I275" s="54"/>
+      <c r="J275" s="54"/>
+      <c r="K275" s="43">
         <v>0</v>
       </c>
-      <c r="L275" s="49">
+      <c r="L275" s="43">
         <v>0</v>
       </c>
-      <c r="M275" s="52">
+      <c r="M275" s="59">
         <v>0</v>
       </c>
-      <c r="N275" s="52"/>
-      <c r="Q275" s="55" t="s">
+      <c r="N275" s="59"/>
+      <c r="Q275" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="R275" s="55"/>
-      <c r="S275" s="55"/>
-      <c r="T275" s="54"/>
-      <c r="U275" s="49">
+      <c r="R275" s="58"/>
+      <c r="S275" s="58"/>
+      <c r="T275" s="56"/>
+      <c r="U275" s="43">
         <v>0</v>
       </c>
-      <c r="V275" s="49">
+      <c r="V275" s="43">
         <v>0</v>
       </c>
-      <c r="W275" s="34">
-        <v>1</v>
-      </c>
-      <c r="X275" s="34"/>
-      <c r="Y275" s="48"/>
-      <c r="Z275" s="48"/>
-      <c r="AA275" s="48"/>
+      <c r="W275" s="57">
+        <v>1</v>
+      </c>
+      <c r="X275" s="57"/>
+      <c r="Y275" s="42"/>
+      <c r="Z275" s="42"/>
+      <c r="AA275" s="42"/>
     </row>
     <row r="276" spans="2:27">
-      <c r="E276" s="33" t="s">
+      <c r="E276" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="F276" s="33"/>
-      <c r="G276" s="33"/>
-      <c r="H276" s="33"/>
-      <c r="I276" s="33"/>
-      <c r="J276" s="33"/>
-      <c r="K276" s="50">
+      <c r="F276" s="54"/>
+      <c r="G276" s="54"/>
+      <c r="H276" s="54"/>
+      <c r="I276" s="54"/>
+      <c r="J276" s="54"/>
+      <c r="K276" s="44">
         <v>0</v>
       </c>
-      <c r="L276" s="50">
-        <v>1</v>
-      </c>
-      <c r="M276" s="52">
+      <c r="L276" s="44">
+        <v>1</v>
+      </c>
+      <c r="M276" s="59">
         <v>0</v>
       </c>
-      <c r="N276" s="52"/>
-      <c r="Q276" s="55" t="s">
+      <c r="N276" s="59"/>
+      <c r="Q276" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="R276" s="55"/>
-      <c r="S276" s="55"/>
-      <c r="T276" s="54"/>
-      <c r="U276" s="50">
+      <c r="R276" s="58"/>
+      <c r="S276" s="58"/>
+      <c r="T276" s="56"/>
+      <c r="U276" s="44">
         <v>0</v>
       </c>
-      <c r="V276" s="50">
-        <v>1</v>
-      </c>
-      <c r="W276" s="34">
-        <v>1</v>
-      </c>
-      <c r="X276" s="34"/>
-      <c r="Y276" s="48"/>
-      <c r="Z276" s="48"/>
-      <c r="AA276" s="48"/>
+      <c r="V276" s="44">
+        <v>1</v>
+      </c>
+      <c r="W276" s="57">
+        <v>1</v>
+      </c>
+      <c r="X276" s="57"/>
+      <c r="Y276" s="42"/>
+      <c r="Z276" s="42"/>
+      <c r="AA276" s="42"/>
     </row>
     <row r="277" spans="2:27">
-      <c r="E277" s="33" t="s">
+      <c r="E277" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="F277" s="33"/>
-      <c r="G277" s="33"/>
-      <c r="H277" s="33"/>
-      <c r="I277" s="33"/>
-      <c r="J277" s="33"/>
-      <c r="K277" s="50">
-        <v>1</v>
-      </c>
-      <c r="L277" s="50">
+      <c r="F277" s="54"/>
+      <c r="G277" s="54"/>
+      <c r="H277" s="54"/>
+      <c r="I277" s="54"/>
+      <c r="J277" s="54"/>
+      <c r="K277" s="44">
+        <v>1</v>
+      </c>
+      <c r="L277" s="44">
         <v>0</v>
       </c>
-      <c r="M277" s="52">
-        <v>1</v>
-      </c>
-      <c r="N277" s="52"/>
-      <c r="Q277" s="55" t="s">
+      <c r="M277" s="59">
+        <v>1</v>
+      </c>
+      <c r="N277" s="59"/>
+      <c r="Q277" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="R277" s="55"/>
-      <c r="S277" s="55"/>
-      <c r="T277" s="54"/>
-      <c r="U277" s="50">
-        <v>1</v>
-      </c>
-      <c r="V277" s="50">
+      <c r="R277" s="58"/>
+      <c r="S277" s="58"/>
+      <c r="T277" s="56"/>
+      <c r="U277" s="44">
+        <v>1</v>
+      </c>
+      <c r="V277" s="44">
         <v>0</v>
       </c>
-      <c r="W277" s="34">
-        <v>1</v>
-      </c>
-      <c r="X277" s="34"/>
-      <c r="Y277" s="48"/>
-      <c r="Z277" s="48"/>
-      <c r="AA277" s="48"/>
+      <c r="W277" s="57">
+        <v>1</v>
+      </c>
+      <c r="X277" s="57"/>
+      <c r="Y277" s="42"/>
+      <c r="Z277" s="42"/>
+      <c r="AA277" s="42"/>
     </row>
     <row r="278" spans="2:27">
       <c r="E278" s="27"/>
@@ -6037,137 +6058,137 @@
       <c r="H278" s="27"/>
       <c r="I278" s="27"/>
       <c r="J278" s="27"/>
-      <c r="K278" s="50">
-        <v>1</v>
-      </c>
-      <c r="L278" s="50">
-        <v>1</v>
-      </c>
-      <c r="M278" s="52">
-        <v>1</v>
-      </c>
-      <c r="N278" s="52"/>
-      <c r="U278" s="50">
-        <v>1</v>
-      </c>
-      <c r="V278" s="50">
-        <v>1</v>
-      </c>
-      <c r="W278" s="34">
+      <c r="K278" s="44">
+        <v>1</v>
+      </c>
+      <c r="L278" s="44">
+        <v>1</v>
+      </c>
+      <c r="M278" s="59">
+        <v>1</v>
+      </c>
+      <c r="N278" s="59"/>
+      <c r="U278" s="44">
+        <v>1</v>
+      </c>
+      <c r="V278" s="44">
+        <v>1</v>
+      </c>
+      <c r="W278" s="57">
         <v>0</v>
       </c>
-      <c r="X278" s="34"/>
-      <c r="Y278" s="48"/>
-      <c r="Z278" s="48"/>
-      <c r="AA278" s="48"/>
+      <c r="X278" s="57"/>
+      <c r="Y278" s="42"/>
+      <c r="Z278" s="42"/>
+      <c r="AA278" s="42"/>
     </row>
     <row r="279" spans="2:27">
-      <c r="I279" s="48"/>
-      <c r="J279" s="48"/>
-      <c r="K279" s="48"/>
-      <c r="L279" s="48"/>
-      <c r="M279" s="48"/>
-      <c r="W279" s="48"/>
-      <c r="X279" s="48"/>
-      <c r="Y279" s="48"/>
-      <c r="Z279" s="48"/>
-      <c r="AA279" s="48"/>
+      <c r="I279" s="42"/>
+      <c r="J279" s="42"/>
+      <c r="K279" s="42"/>
+      <c r="L279" s="42"/>
+      <c r="M279" s="42"/>
+      <c r="W279" s="42"/>
+      <c r="X279" s="42"/>
+      <c r="Y279" s="42"/>
+      <c r="Z279" s="42"/>
+      <c r="AA279" s="42"/>
     </row>
     <row r="280" spans="2:27">
-      <c r="I280" s="48"/>
-      <c r="J280" s="48"/>
-      <c r="K280" s="48"/>
-      <c r="L280" s="48"/>
-      <c r="M280" s="48"/>
-      <c r="W280" s="48"/>
-      <c r="X280" s="48"/>
-      <c r="Y280" s="48"/>
-      <c r="Z280" s="48"/>
-      <c r="AA280" s="48"/>
+      <c r="I280" s="42"/>
+      <c r="J280" s="42"/>
+      <c r="K280" s="42"/>
+      <c r="L280" s="42"/>
+      <c r="M280" s="42"/>
+      <c r="W280" s="42"/>
+      <c r="X280" s="42"/>
+      <c r="Y280" s="42"/>
+      <c r="Z280" s="42"/>
+      <c r="AA280" s="42"/>
     </row>
     <row r="281" spans="2:27">
-      <c r="I281" s="48"/>
-      <c r="J281" s="48"/>
-      <c r="K281" s="48"/>
-      <c r="L281" s="48"/>
-      <c r="M281" s="48"/>
-      <c r="W281" s="48"/>
-      <c r="X281" s="48"/>
-      <c r="Y281" s="48"/>
-      <c r="Z281" s="48"/>
-      <c r="AA281" s="48"/>
+      <c r="I281" s="42"/>
+      <c r="J281" s="42"/>
+      <c r="K281" s="42"/>
+      <c r="L281" s="42"/>
+      <c r="M281" s="42"/>
+      <c r="W281" s="42"/>
+      <c r="X281" s="42"/>
+      <c r="Y281" s="42"/>
+      <c r="Z281" s="42"/>
+      <c r="AA281" s="42"/>
     </row>
     <row r="282" spans="2:27">
-      <c r="I282" s="48"/>
-      <c r="J282" s="48"/>
-      <c r="K282" s="48"/>
-      <c r="L282" s="48"/>
-      <c r="M282" s="48"/>
-      <c r="W282" s="48"/>
-      <c r="X282" s="48"/>
-      <c r="Y282" s="48"/>
-      <c r="Z282" s="48"/>
-      <c r="AA282" s="48"/>
+      <c r="I282" s="42"/>
+      <c r="J282" s="42"/>
+      <c r="K282" s="42"/>
+      <c r="L282" s="42"/>
+      <c r="M282" s="42"/>
+      <c r="W282" s="42"/>
+      <c r="X282" s="42"/>
+      <c r="Y282" s="42"/>
+      <c r="Z282" s="42"/>
+      <c r="AA282" s="42"/>
     </row>
     <row r="283" spans="2:27">
-      <c r="I283" s="48"/>
-      <c r="J283" s="48"/>
-      <c r="K283" s="48"/>
-      <c r="L283" s="48"/>
-      <c r="M283" s="48"/>
-      <c r="W283" s="48"/>
-      <c r="X283" s="48"/>
-      <c r="Y283" s="48"/>
-      <c r="Z283" s="48"/>
-      <c r="AA283" s="48"/>
+      <c r="I283" s="42"/>
+      <c r="J283" s="42"/>
+      <c r="K283" s="42"/>
+      <c r="L283" s="42"/>
+      <c r="M283" s="42"/>
+      <c r="W283" s="42"/>
+      <c r="X283" s="42"/>
+      <c r="Y283" s="42"/>
+      <c r="Z283" s="42"/>
+      <c r="AA283" s="42"/>
     </row>
     <row r="284" spans="2:27">
-      <c r="I284" s="48"/>
-      <c r="J284" s="48"/>
-      <c r="K284" s="48"/>
-      <c r="L284" s="48"/>
-      <c r="M284" s="48"/>
-      <c r="W284" s="48"/>
-      <c r="X284" s="48"/>
-      <c r="Y284" s="48"/>
-      <c r="Z284" s="48"/>
-      <c r="AA284" s="48"/>
+      <c r="I284" s="42"/>
+      <c r="J284" s="42"/>
+      <c r="K284" s="42"/>
+      <c r="L284" s="42"/>
+      <c r="M284" s="42"/>
+      <c r="W284" s="42"/>
+      <c r="X284" s="42"/>
+      <c r="Y284" s="42"/>
+      <c r="Z284" s="42"/>
+      <c r="AA284" s="42"/>
     </row>
     <row r="285" spans="2:27">
-      <c r="I285" s="48"/>
-      <c r="J285" s="48"/>
-      <c r="K285" s="48"/>
-      <c r="L285" s="48"/>
-      <c r="M285" s="48"/>
-      <c r="W285" s="48"/>
-      <c r="X285" s="48"/>
-      <c r="Y285" s="48"/>
-      <c r="Z285" s="48"/>
-      <c r="AA285" s="48"/>
+      <c r="I285" s="42"/>
+      <c r="J285" s="42"/>
+      <c r="K285" s="42"/>
+      <c r="L285" s="42"/>
+      <c r="M285" s="42"/>
+      <c r="W285" s="42"/>
+      <c r="X285" s="42"/>
+      <c r="Y285" s="42"/>
+      <c r="Z285" s="42"/>
+      <c r="AA285" s="42"/>
     </row>
     <row r="286" spans="2:27">
-      <c r="I286" s="48"/>
-      <c r="J286" s="48"/>
-      <c r="K286" s="48"/>
-      <c r="L286" s="48"/>
-      <c r="M286" s="48"/>
-      <c r="W286" s="48"/>
-      <c r="X286" s="48"/>
-      <c r="Y286" s="48"/>
-      <c r="Z286" s="48"/>
-      <c r="AA286" s="48"/>
+      <c r="I286" s="42"/>
+      <c r="J286" s="42"/>
+      <c r="K286" s="42"/>
+      <c r="L286" s="42"/>
+      <c r="M286" s="42"/>
+      <c r="W286" s="42"/>
+      <c r="X286" s="42"/>
+      <c r="Y286" s="42"/>
+      <c r="Z286" s="42"/>
+      <c r="AA286" s="42"/>
     </row>
     <row r="287" spans="2:27">
-      <c r="I287" s="48"/>
-      <c r="J287" s="48"/>
-      <c r="K287" s="48"/>
-      <c r="L287" s="48"/>
-      <c r="M287" s="48"/>
-      <c r="W287" s="48"/>
-      <c r="X287" s="48"/>
-      <c r="Y287" s="48"/>
-      <c r="Z287" s="48"/>
-      <c r="AA287" s="48"/>
+      <c r="I287" s="42"/>
+      <c r="J287" s="42"/>
+      <c r="K287" s="42"/>
+      <c r="L287" s="42"/>
+      <c r="M287" s="42"/>
+      <c r="W287" s="42"/>
+      <c r="X287" s="42"/>
+      <c r="Y287" s="42"/>
+      <c r="Z287" s="42"/>
+      <c r="AA287" s="42"/>
     </row>
     <row r="288" spans="2:27">
       <c r="B288"/>
@@ -6199,79 +6220,79 @@
       </c>
     </row>
     <row r="295" spans="1:11">
-      <c r="I295" s="42" t="s">
+      <c r="I295" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="J295" s="42" t="s">
+      <c r="J295" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="K295" s="42" t="s">
+      <c r="K295" s="36" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="296" spans="1:11">
-      <c r="I296" s="43" t="s">
+      <c r="I296" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="J296" s="43" t="s">
+      <c r="J296" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="K296" s="43">
+      <c r="K296" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:11">
-      <c r="I297" s="43" t="s">
+      <c r="I297" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="J297" s="43" t="s">
+      <c r="J297" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="K297" s="43">
+      <c r="K297" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:11">
-      <c r="I298" s="43" t="s">
+      <c r="I298" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="J298" s="43" t="s">
+      <c r="J298" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="K298" s="43">
+      <c r="K298" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:11">
-      <c r="I299" s="43" t="s">
+      <c r="I299" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="J299" s="43" t="s">
+      <c r="J299" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="K299" s="43">
+      <c r="K299" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:11">
-      <c r="I300" s="43" t="s">
+      <c r="I300" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="J300" s="43" t="s">
+      <c r="J300" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="K300" s="43">
+      <c r="K300" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:11">
-      <c r="I301" s="43" t="s">
+      <c r="I301" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="J301" s="43" t="s">
+      <c r="J301" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="K301" s="43">
+      <c r="K301" s="37">
         <v>2</v>
       </c>
     </row>
@@ -6309,10 +6330,10 @@
       <c r="G309" t="s">
         <v>178</v>
       </c>
-      <c r="I309" s="33" t="s">
+      <c r="I309" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="J309" s="33"/>
+      <c r="J309" s="54"/>
       <c r="K309" t="s">
         <v>196</v>
       </c>
@@ -6338,59 +6359,59 @@
       <c r="J313" t="s">
         <v>196</v>
       </c>
-      <c r="K313" s="33" t="s">
+      <c r="K313" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="L313" s="33"/>
-      <c r="M313" s="33" t="s">
+      <c r="L313" s="54"/>
+      <c r="M313" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="N313" s="33"/>
+      <c r="N313" s="54"/>
       <c r="O313" t="s">
         <v>196</v>
       </c>
-      <c r="P313" s="33" t="s">
+      <c r="P313" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="Q313" s="33"/>
-      <c r="R313" s="33" t="s">
+      <c r="Q313" s="54"/>
+      <c r="R313" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="S313" s="33"/>
+      <c r="S313" s="54"/>
       <c r="T313" t="s">
         <v>201</v>
       </c>
-      <c r="U313" s="33" t="s">
+      <c r="U313" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="V313" s="33"/>
+      <c r="V313" s="54"/>
     </row>
     <row r="315" spans="1:22">
       <c r="G315" t="s">
         <v>178</v>
       </c>
-      <c r="I315" s="33" t="s">
+      <c r="I315" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="J315" s="33"/>
+      <c r="J315" s="54"/>
       <c r="K315" t="s">
         <v>196</v>
       </c>
-      <c r="L315" s="33" t="s">
+      <c r="L315" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="M315" s="33"/>
-      <c r="N315" s="33" t="s">
+      <c r="M315" s="54"/>
+      <c r="N315" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="O315" s="33"/>
+      <c r="O315" s="54"/>
       <c r="P315" t="s">
         <v>196</v>
       </c>
-      <c r="Q315" s="33" t="s">
+      <c r="Q315" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="R315" s="33"/>
+      <c r="R315" s="54"/>
     </row>
     <row r="318" spans="1:22">
       <c r="A318" s="26">
@@ -6401,13 +6422,13 @@
       </c>
     </row>
     <row r="330" spans="1:9">
-      <c r="I330" s="41"/>
+      <c r="I330" s="35"/>
     </row>
     <row r="331" spans="1:9">
-      <c r="I331" s="40"/>
+      <c r="I331" s="34"/>
     </row>
     <row r="332" spans="1:9">
-      <c r="I332" s="40"/>
+      <c r="I332" s="34"/>
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="26">
@@ -6418,17 +6439,17 @@
       </c>
     </row>
     <row r="336" spans="1:9">
-      <c r="I336" s="37" t="s">
+      <c r="I336" s="31" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="337" spans="1:15">
-      <c r="I337" s="38" t="s">
+      <c r="I337" s="32" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="338" spans="1:15">
-      <c r="I338" s="38" t="s">
+      <c r="I338" s="32" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6476,15 +6497,15 @@
       <c r="K344" s="7">
         <v>1</v>
       </c>
-      <c r="L344" s="39" t="str">
-        <f>IF(M344="*4","БРИЗ","ВОЛНА")</f>
+      <c r="L344" s="33" t="str">
+        <f t="shared" ref="L344:L354" si="0">IF(M344="*4","БРИЗ","ВОЛНА")</f>
         <v>БРИЗ</v>
       </c>
       <c r="M344" s="7" t="str">
         <f>IF(K344=1,"*4","*5")</f>
         <v>*4</v>
       </c>
-      <c r="N344" s="39" t="s">
+      <c r="N344" s="33" t="s">
         <v>56</v>
       </c>
       <c r="O344" s="7" t="s">
@@ -6501,12 +6522,12 @@
       <c r="K345" s="7">
         <v>1</v>
       </c>
-      <c r="L345" s="39" t="str">
-        <f>IF(M345="*4","БРИЗ","ВОЛНА")</f>
+      <c r="L345" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>БРИЗ</v>
       </c>
       <c r="M345" s="7" t="str">
-        <f t="shared" ref="M345:M354" si="0">IF(K345=1,"*4","*5")</f>
+        <f t="shared" ref="M345:M354" si="1">IF(K345=1,"*4","*5")</f>
         <v>*4</v>
       </c>
       <c r="N345" s="7" t="s">
@@ -6527,12 +6548,12 @@
       <c r="K346" s="7">
         <v>1</v>
       </c>
-      <c r="L346" s="39" t="str">
-        <f>IF(M346="*4","БРИЗ","ВОЛНА")</f>
+      <c r="L346" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>БРИЗ</v>
       </c>
       <c r="M346" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>*4</v>
       </c>
       <c r="N346" s="7" t="s">
@@ -6552,12 +6573,12 @@
       <c r="K347" s="7">
         <v>1</v>
       </c>
-      <c r="L347" s="39" t="str">
-        <f>IF(M347="*4","БРИЗ","ВОЛНА")</f>
+      <c r="L347" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>БРИЗ</v>
       </c>
       <c r="M347" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>*4</v>
       </c>
       <c r="N347" s="7" t="s">
@@ -6578,12 +6599,12 @@
       <c r="K348" s="7">
         <v>1</v>
       </c>
-      <c r="L348" s="39" t="str">
-        <f>IF(M348="*4","БРИЗ","ВОЛНА")</f>
+      <c r="L348" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>БРИЗ</v>
       </c>
       <c r="M348" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>*4</v>
       </c>
       <c r="N348" s="7" t="s">
@@ -6603,12 +6624,12 @@
       <c r="K349" s="7">
         <v>2</v>
       </c>
-      <c r="L349" s="39" t="str">
-        <f>IF(M349="*4","БРИЗ","ВОЛНА")</f>
+      <c r="L349" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>ВОЛНА</v>
       </c>
       <c r="M349" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>*5</v>
       </c>
       <c r="N349" s="7" t="s">
@@ -6628,12 +6649,12 @@
       <c r="K350" s="7">
         <v>2</v>
       </c>
-      <c r="L350" s="39" t="str">
-        <f>IF(M350="*4","БРИЗ","ВОЛНА")</f>
+      <c r="L350" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>ВОЛНА</v>
       </c>
       <c r="M350" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>*5</v>
       </c>
       <c r="N350" s="7" t="s">
@@ -6653,12 +6674,12 @@
       <c r="K351" s="7">
         <v>2</v>
       </c>
-      <c r="L351" s="39" t="str">
-        <f>IF(M351="*4","БРИЗ","ВОЛНА")</f>
+      <c r="L351" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>ВОЛНА</v>
       </c>
       <c r="M351" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>*5</v>
       </c>
       <c r="N351" s="7" t="s">
@@ -6679,12 +6700,12 @@
       <c r="K352" s="7">
         <v>2</v>
       </c>
-      <c r="L352" s="39" t="str">
-        <f>IF(M352="*4","БРИЗ","ВОЛНА")</f>
+      <c r="L352" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>ВОЛНА</v>
       </c>
       <c r="M352" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>*5</v>
       </c>
       <c r="N352" s="7" t="s">
@@ -6705,12 +6726,12 @@
       <c r="K353" s="7">
         <v>2</v>
       </c>
-      <c r="L353" s="39" t="str">
-        <f>IF(M353="*4","БРИЗ","ВОЛНА")</f>
+      <c r="L353" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>ВОЛНА</v>
       </c>
       <c r="M353" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>*5</v>
       </c>
       <c r="N353" s="7" t="s">
@@ -6731,12 +6752,12 @@
       <c r="K354" s="7">
         <v>1</v>
       </c>
-      <c r="L354" s="39" t="str">
-        <f>IF(M354="*4","БРИЗ","ВОЛНА")</f>
+      <c r="L354" s="33" t="str">
+        <f t="shared" si="0"/>
         <v>БРИЗ</v>
       </c>
       <c r="M354" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>*4</v>
       </c>
       <c r="N354" s="7" t="s">
@@ -6748,14 +6769,52 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="O153:U153"/>
-    <mergeCell ref="T122:U122"/>
-    <mergeCell ref="W122:X122"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="O122:P122"/>
-    <mergeCell ref="O152:R152"/>
-    <mergeCell ref="K123:Q123"/>
+  <mergeCells count="66">
+    <mergeCell ref="P112:Z112"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="F115:L115"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="P115:Z115"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="X116:Y116"/>
+    <mergeCell ref="H116:L116"/>
+    <mergeCell ref="H117:L117"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="H85:L85"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="H20:U20"/>
+    <mergeCell ref="H30:U30"/>
+    <mergeCell ref="H31:U31"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R313:S313"/>
+    <mergeCell ref="U313:V313"/>
+    <mergeCell ref="I315:J315"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="Q315:R315"/>
+    <mergeCell ref="K313:L313"/>
+    <mergeCell ref="M313:N313"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="F179:I179"/>
+    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="P313:Q313"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="I309:J309"/>
+    <mergeCell ref="E274:J274"/>
+    <mergeCell ref="E275:J275"/>
+    <mergeCell ref="E276:J276"/>
+    <mergeCell ref="E277:J277"/>
+    <mergeCell ref="M274:N274"/>
+    <mergeCell ref="M275:N275"/>
+    <mergeCell ref="M276:N276"/>
+    <mergeCell ref="M277:N277"/>
     <mergeCell ref="K121:Q121"/>
     <mergeCell ref="W278:X278"/>
     <mergeCell ref="W274:X274"/>
@@ -6766,54 +6825,17 @@
     <mergeCell ref="Q275:T275"/>
     <mergeCell ref="Q276:T276"/>
     <mergeCell ref="Q277:T277"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="F179:I179"/>
-    <mergeCell ref="F180:I180"/>
-    <mergeCell ref="P313:Q313"/>
-    <mergeCell ref="R313:S313"/>
-    <mergeCell ref="U313:V313"/>
-    <mergeCell ref="I315:J315"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="Q315:R315"/>
-    <mergeCell ref="K209:L209"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="I309:J309"/>
-    <mergeCell ref="K313:L313"/>
-    <mergeCell ref="M313:N313"/>
-    <mergeCell ref="E274:J274"/>
-    <mergeCell ref="E275:J275"/>
-    <mergeCell ref="E276:J276"/>
-    <mergeCell ref="E277:J277"/>
-    <mergeCell ref="M274:N274"/>
-    <mergeCell ref="M275:N275"/>
-    <mergeCell ref="M276:N276"/>
-    <mergeCell ref="M277:N277"/>
     <mergeCell ref="M278:N278"/>
     <mergeCell ref="K206:L206"/>
     <mergeCell ref="K207:L207"/>
     <mergeCell ref="K208:L208"/>
-    <mergeCell ref="H20:U20"/>
-    <mergeCell ref="H30:U30"/>
-    <mergeCell ref="H31:U31"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="H85:L85"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="I114:K114"/>
-    <mergeCell ref="F115:L115"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="P115:Z115"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="X116:Y116"/>
-    <mergeCell ref="H116:L116"/>
-    <mergeCell ref="H117:L117"/>
+    <mergeCell ref="O153:U153"/>
+    <mergeCell ref="T122:U122"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="O122:P122"/>
+    <mergeCell ref="O152:R152"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/Problems1-24-Autumn BuchilkinNA.xlsx
+++ b/Problems1-24-Autumn BuchilkinNA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="243">
   <si>
     <t>}</t>
   </si>
@@ -736,6 +736,18 @@
   </si>
   <si>
     <t>Интенсивность цвета означает важность атрибута для однозначности</t>
+  </si>
+  <si>
+    <t>RANGE ANIMATOR IS R1</t>
+  </si>
+  <si>
+    <t>RANGE SEASON IS R2</t>
+  </si>
+  <si>
+    <t>ANIMATOR.ANIMATE, ANIMATOR.PAYMENT WHERE</t>
+  </si>
+  <si>
+    <t>(ANIMATOR.ANIMATE = SEASONS.ANIMATE AND SEASONS.SEASON = S)</t>
   </si>
 </sst>
 </file>
@@ -1067,27 +1079,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1095,6 +1086,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1160,13 +1172,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>129418</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>337</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1486,7 +1498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1495,10 +1507,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:AH354"/>
+  <dimension ref="A2:AH359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="T120" sqref="T120"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="Q301" sqref="Q301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2873,10 +2885,10 @@
       </c>
     </row>
     <row r="101" spans="1:26">
-      <c r="H101" s="60" t="s">
+      <c r="H101" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="I101" s="60"/>
+      <c r="I101" s="62"/>
       <c r="J101" s="7">
         <v>12</v>
       </c>
@@ -2930,10 +2942,10 @@
       </c>
     </row>
     <row r="112" spans="1:26">
-      <c r="I112" s="57" t="s">
+      <c r="I112" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J112" s="57"/>
+      <c r="J112" s="58"/>
       <c r="L112" s="27"/>
       <c r="P112" s="54" t="s">
         <v>225</v>
@@ -2974,11 +2986,11 @@
       </c>
     </row>
     <row r="114" spans="1:26">
-      <c r="I114" s="62" t="s">
+      <c r="I114" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="J114" s="63"/>
-      <c r="K114" s="64"/>
+      <c r="J114" s="56"/>
+      <c r="K114" s="57"/>
       <c r="T114" s="14"/>
       <c r="U114" s="14"/>
     </row>
@@ -3019,47 +3031,47 @@
       <c r="Q116" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="R116" s="56"/>
+      <c r="R116" s="59"/>
       <c r="S116" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T116" s="55" t="s">
+      <c r="T116" s="60" t="s">
         <v>227</v>
       </c>
       <c r="U116" s="54"/>
-      <c r="V116" s="56"/>
+      <c r="V116" s="59"/>
       <c r="W116" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="X116" s="55" t="s">
+      <c r="X116" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="Y116" s="56"/>
+      <c r="Y116" s="59"/>
       <c r="Z116" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:26">
-      <c r="H117" s="63" t="s">
+      <c r="H117" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="I117" s="63"/>
-      <c r="J117" s="63"/>
-      <c r="K117" s="63"/>
-      <c r="L117" s="63"/>
+      <c r="I117" s="56"/>
+      <c r="J117" s="56"/>
+      <c r="K117" s="56"/>
+      <c r="L117" s="56"/>
     </row>
     <row r="118" spans="1:26">
       <c r="H118" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I118" s="57" t="s">
+      <c r="I118" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="J118" s="57"/>
-      <c r="K118" s="57" t="s">
+      <c r="J118" s="58"/>
+      <c r="K118" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="L118" s="57"/>
+      <c r="L118" s="58"/>
     </row>
     <row r="121" spans="1:26">
       <c r="K121" s="54"/>
@@ -3074,34 +3086,34 @@
       <c r="K122" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L122" s="55" t="s">
+      <c r="L122" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="M122" s="56"/>
+      <c r="M122" s="59"/>
       <c r="N122" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="O122" s="55" t="s">
+      <c r="O122" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="P122" s="56"/>
+      <c r="P122" s="59"/>
       <c r="Q122" s="7" t="s">
         <v>42</v>
       </c>
       <c r="S122" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T122" s="55" t="s">
+      <c r="T122" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="U122" s="56"/>
+      <c r="U122" s="59"/>
       <c r="V122" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="W122" s="55" t="s">
+      <c r="W122" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="X122" s="56"/>
+      <c r="X122" s="59"/>
       <c r="Y122" s="7" t="s">
         <v>42</v>
       </c>
@@ -4231,19 +4243,19 @@
       <c r="H206" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K206" s="57" t="s">
+      <c r="K206" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="L206" s="57"/>
+      <c r="L206" s="58"/>
     </row>
     <row r="207" spans="1:20">
       <c r="H207" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K207" s="57" t="s">
+      <c r="K207" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="L207" s="57"/>
+      <c r="L207" s="58"/>
     </row>
     <row r="208" spans="1:20">
       <c r="F208" t="s">
@@ -4255,26 +4267,26 @@
       <c r="H208" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K208" s="57" t="s">
+      <c r="K208" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="L208" s="57"/>
+      <c r="L208" s="58"/>
     </row>
     <row r="209" spans="1:20">
       <c r="H209" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K209" s="57" t="s">
+      <c r="K209" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="L209" s="57"/>
+      <c r="L209" s="58"/>
     </row>
     <row r="210" spans="1:20">
       <c r="H210" s="14"/>
-      <c r="K210" s="57" t="s">
+      <c r="K210" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="L210" s="57"/>
+      <c r="L210" s="58"/>
     </row>
     <row r="212" spans="1:20">
       <c r="A212" s="26">
@@ -5907,29 +5919,29 @@
       <c r="L274" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="M274" s="59" t="s">
+      <c r="M274" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="N274" s="59"/>
+      <c r="N274" s="63"/>
       <c r="P274" t="s">
         <v>30</v>
       </c>
-      <c r="Q274" s="58" t="s">
+      <c r="Q274" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="R274" s="58"/>
-      <c r="S274" s="58"/>
-      <c r="T274" s="56"/>
+      <c r="R274" s="64"/>
+      <c r="S274" s="64"/>
+      <c r="T274" s="59"/>
       <c r="U274" s="45" t="s">
         <v>185</v>
       </c>
       <c r="V274" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="W274" s="57" t="s">
+      <c r="W274" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="X274" s="57"/>
+      <c r="X274" s="58"/>
       <c r="Y274" s="42"/>
       <c r="Z274" s="42"/>
       <c r="AA274" s="42"/>
@@ -5949,26 +5961,26 @@
       <c r="L275" s="43">
         <v>0</v>
       </c>
-      <c r="M275" s="59">
+      <c r="M275" s="63">
         <v>0</v>
       </c>
-      <c r="N275" s="59"/>
-      <c r="Q275" s="58" t="s">
+      <c r="N275" s="63"/>
+      <c r="Q275" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="R275" s="58"/>
-      <c r="S275" s="58"/>
-      <c r="T275" s="56"/>
+      <c r="R275" s="64"/>
+      <c r="S275" s="64"/>
+      <c r="T275" s="59"/>
       <c r="U275" s="43">
         <v>0</v>
       </c>
       <c r="V275" s="43">
         <v>0</v>
       </c>
-      <c r="W275" s="57">
-        <v>1</v>
-      </c>
-      <c r="X275" s="57"/>
+      <c r="W275" s="58">
+        <v>1</v>
+      </c>
+      <c r="X275" s="58"/>
       <c r="Y275" s="42"/>
       <c r="Z275" s="42"/>
       <c r="AA275" s="42"/>
@@ -5988,26 +6000,26 @@
       <c r="L276" s="44">
         <v>1</v>
       </c>
-      <c r="M276" s="59">
+      <c r="M276" s="63">
         <v>0</v>
       </c>
-      <c r="N276" s="59"/>
-      <c r="Q276" s="58" t="s">
+      <c r="N276" s="63"/>
+      <c r="Q276" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="R276" s="58"/>
-      <c r="S276" s="58"/>
-      <c r="T276" s="56"/>
+      <c r="R276" s="64"/>
+      <c r="S276" s="64"/>
+      <c r="T276" s="59"/>
       <c r="U276" s="44">
         <v>0</v>
       </c>
       <c r="V276" s="44">
         <v>1</v>
       </c>
-      <c r="W276" s="57">
-        <v>1</v>
-      </c>
-      <c r="X276" s="57"/>
+      <c r="W276" s="58">
+        <v>1</v>
+      </c>
+      <c r="X276" s="58"/>
       <c r="Y276" s="42"/>
       <c r="Z276" s="42"/>
       <c r="AA276" s="42"/>
@@ -6027,26 +6039,26 @@
       <c r="L277" s="44">
         <v>0</v>
       </c>
-      <c r="M277" s="59">
-        <v>1</v>
-      </c>
-      <c r="N277" s="59"/>
-      <c r="Q277" s="58" t="s">
+      <c r="M277" s="63">
+        <v>1</v>
+      </c>
+      <c r="N277" s="63"/>
+      <c r="Q277" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="R277" s="58"/>
-      <c r="S277" s="58"/>
-      <c r="T277" s="56"/>
+      <c r="R277" s="64"/>
+      <c r="S277" s="64"/>
+      <c r="T277" s="59"/>
       <c r="U277" s="44">
         <v>1</v>
       </c>
       <c r="V277" s="44">
         <v>0</v>
       </c>
-      <c r="W277" s="57">
-        <v>1</v>
-      </c>
-      <c r="X277" s="57"/>
+      <c r="W277" s="58">
+        <v>1</v>
+      </c>
+      <c r="X277" s="58"/>
       <c r="Y277" s="42"/>
       <c r="Z277" s="42"/>
       <c r="AA277" s="42"/>
@@ -6064,20 +6076,20 @@
       <c r="L278" s="44">
         <v>1</v>
       </c>
-      <c r="M278" s="59">
-        <v>1</v>
-      </c>
-      <c r="N278" s="59"/>
+      <c r="M278" s="63">
+        <v>1</v>
+      </c>
+      <c r="N278" s="63"/>
       <c r="U278" s="44">
         <v>1</v>
       </c>
       <c r="V278" s="44">
         <v>1</v>
       </c>
-      <c r="W278" s="57">
+      <c r="W278" s="58">
         <v>0</v>
       </c>
-      <c r="X278" s="57"/>
+      <c r="X278" s="58"/>
       <c r="Y278" s="42"/>
       <c r="Z278" s="42"/>
       <c r="AA278" s="42"/>
@@ -6305,408 +6317,319 @@
       </c>
     </row>
     <row r="305" spans="1:22">
-      <c r="A305" s="26">
+      <c r="I305" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="J305" s="54"/>
+      <c r="K305" s="54"/>
+      <c r="L305" s="54"/>
+      <c r="M305" s="54"/>
+    </row>
+    <row r="306" spans="1:22">
+      <c r="I306" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="J306" s="54"/>
+      <c r="K306" s="54"/>
+      <c r="L306" s="54"/>
+      <c r="M306" s="54"/>
+    </row>
+    <row r="307" spans="1:22">
+      <c r="I307" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="J307" s="54"/>
+      <c r="K307" s="54"/>
+      <c r="L307" s="54"/>
+      <c r="M307" s="54"/>
+    </row>
+    <row r="308" spans="1:22">
+      <c r="H308" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="I308" s="54"/>
+      <c r="J308" s="54"/>
+      <c r="K308" s="54"/>
+      <c r="L308" s="54"/>
+      <c r="M308" s="54"/>
+      <c r="N308" s="54"/>
+    </row>
+    <row r="310" spans="1:22">
+      <c r="A310" s="26">
         <v>15</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B310" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="307" spans="1:22">
-      <c r="G307" t="s">
+    <row r="312" spans="1:22">
+      <c r="G312" t="s">
         <v>22</v>
       </c>
-      <c r="I307" t="s">
+      <c r="I312" t="s">
         <v>148</v>
       </c>
-      <c r="J307" t="s">
+      <c r="J312" t="s">
         <v>196</v>
       </c>
-      <c r="K307" t="s">
+      <c r="K312" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="309" spans="1:22">
-      <c r="G309" t="s">
+    <row r="314" spans="1:22">
+      <c r="G314" t="s">
         <v>178</v>
       </c>
-      <c r="I309" s="54" t="s">
+      <c r="I314" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="J309" s="54"/>
-      <c r="K309" t="s">
+      <c r="J314" s="54"/>
+      <c r="K314" t="s">
         <v>196</v>
       </c>
-      <c r="L309" t="s">
+      <c r="L314" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="311" spans="1:22">
-      <c r="A311" s="26">
+    <row r="316" spans="1:22">
+      <c r="A316" s="26">
         <v>16</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B316" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="313" spans="1:22">
-      <c r="G313" t="s">
+    <row r="318" spans="1:22">
+      <c r="G318" t="s">
         <v>22</v>
       </c>
-      <c r="I313" t="s">
+      <c r="I318" t="s">
         <v>148</v>
       </c>
-      <c r="J313" t="s">
+      <c r="J318" t="s">
         <v>196</v>
       </c>
-      <c r="K313" s="54" t="s">
+      <c r="K318" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="L313" s="54"/>
-      <c r="M313" s="54" t="s">
+      <c r="L318" s="54"/>
+      <c r="M318" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="N313" s="54"/>
-      <c r="O313" t="s">
+      <c r="N318" s="54"/>
+      <c r="O318" t="s">
         <v>196</v>
       </c>
-      <c r="P313" s="54" t="s">
+      <c r="P318" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="Q313" s="54"/>
-      <c r="R313" s="54" t="s">
+      <c r="Q318" s="54"/>
+      <c r="R318" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="S313" s="54"/>
-      <c r="T313" t="s">
+      <c r="S318" s="54"/>
+      <c r="T318" t="s">
         <v>201</v>
       </c>
-      <c r="U313" s="54" t="s">
+      <c r="U318" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="V313" s="54"/>
-    </row>
-    <row r="315" spans="1:22">
-      <c r="G315" t="s">
+      <c r="V318" s="54"/>
+    </row>
+    <row r="320" spans="1:22">
+      <c r="G320" t="s">
         <v>178</v>
       </c>
-      <c r="I315" s="54" t="s">
+      <c r="I320" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="J315" s="54"/>
-      <c r="K315" t="s">
+      <c r="J320" s="54"/>
+      <c r="K320" t="s">
         <v>196</v>
       </c>
-      <c r="L315" s="54" t="s">
+      <c r="L320" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="M315" s="54"/>
-      <c r="N315" s="54" t="s">
+      <c r="M320" s="54"/>
+      <c r="N320" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="O315" s="54"/>
-      <c r="P315" t="s">
+      <c r="O320" s="54"/>
+      <c r="P320" t="s">
         <v>196</v>
       </c>
-      <c r="Q315" s="54" t="s">
+      <c r="Q320" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="R315" s="54"/>
-    </row>
-    <row r="318" spans="1:22">
-      <c r="A318" s="26">
+      <c r="R320" s="54"/>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" s="26">
         <v>17</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B323" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
-      <c r="I330" s="35"/>
-    </row>
-    <row r="331" spans="1:9">
-      <c r="I331" s="34"/>
-    </row>
-    <row r="332" spans="1:9">
-      <c r="I332" s="34"/>
-    </row>
-    <row r="334" spans="1:9">
-      <c r="A334" s="26">
+    <row r="335" spans="1:9">
+      <c r="I335" s="35"/>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="I336" s="34"/>
+    </row>
+    <row r="337" spans="1:15">
+      <c r="I337" s="34"/>
+    </row>
+    <row r="339" spans="1:15">
+      <c r="A339" s="26">
         <v>18</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B339" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
-      <c r="I336" s="31" t="s">
+    <row r="341" spans="1:15">
+      <c r="I341" s="31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="337" spans="1:15">
-      <c r="I337" s="32" t="s">
+    <row r="342" spans="1:15">
+      <c r="I342" s="32" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="338" spans="1:15">
-      <c r="I338" s="32" t="s">
+    <row r="343" spans="1:15">
+      <c r="I343" s="32" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="339" spans="1:15">
-      <c r="B339"/>
-    </row>
-    <row r="340" spans="1:15">
-      <c r="A340" s="26">
+    <row r="344" spans="1:15">
+      <c r="B344"/>
+    </row>
+    <row r="345" spans="1:15">
+      <c r="A345" s="26">
         <v>19</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B345" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="343" spans="1:15">
-      <c r="I343" s="11" t="s">
+    <row r="348" spans="1:15">
+      <c r="I348" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="J343" s="11" t="s">
+      <c r="J348" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K343" s="11" t="s">
+      <c r="K348" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="L343" s="12" t="s">
+      <c r="L348" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="M343" s="12" t="s">
+      <c r="M348" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N343" s="11" t="s">
+      <c r="N348" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="O343" s="12" t="s">
+      <c r="O348" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="344" spans="1:15">
-      <c r="I344" s="7" t="s">
+    <row r="349" spans="1:15">
+      <c r="I349" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J344" s="7">
+      <c r="J349" s="7">
         <v>15000</v>
       </c>
-      <c r="K344" s="7">
-        <v>1</v>
-      </c>
-      <c r="L344" s="33" t="str">
-        <f t="shared" ref="L344:L354" si="0">IF(M344="*4","БРИЗ","ВОЛНА")</f>
+      <c r="K349" s="7">
+        <v>1</v>
+      </c>
+      <c r="L349" s="33" t="str">
+        <f t="shared" ref="L349:L359" si="0">IF(M349="*4","БРИЗ","ВОЛНА")</f>
         <v>БРИЗ</v>
       </c>
-      <c r="M344" s="7" t="str">
-        <f>IF(K344=1,"*4","*5")</f>
+      <c r="M349" s="7" t="str">
+        <f>IF(K349=1,"*4","*5")</f>
         <v>*4</v>
       </c>
-      <c r="N344" s="33" t="s">
+      <c r="N349" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="O344" s="7" t="s">
+      <c r="O349" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="345" spans="1:15">
-      <c r="I345" s="7" t="s">
+    <row r="350" spans="1:15">
+      <c r="I350" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J345" s="7">
+      <c r="J350" s="7">
         <v>30000</v>
       </c>
-      <c r="K345" s="7">
-        <v>1</v>
-      </c>
-      <c r="L345" s="33" t="str">
+      <c r="K350" s="7">
+        <v>1</v>
+      </c>
+      <c r="L350" s="33" t="str">
         <f t="shared" si="0"/>
         <v>БРИЗ</v>
       </c>
-      <c r="M345" s="7" t="str">
-        <f t="shared" ref="M345:M354" si="1">IF(K345=1,"*4","*5")</f>
+      <c r="M350" s="7" t="str">
+        <f t="shared" ref="M350:M359" si="1">IF(K350=1,"*4","*5")</f>
         <v>*4</v>
       </c>
-      <c r="N345" s="7" t="s">
+      <c r="N350" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O345" s="7" t="str">
-        <f>IF(N345="W","1/12","1/5")</f>
+      <c r="O350" s="7" t="str">
+        <f>IF(N350="W","1/12","1/5")</f>
         <v>1/5</v>
       </c>
     </row>
-    <row r="346" spans="1:15">
-      <c r="I346" s="7" t="s">
+    <row r="351" spans="1:15">
+      <c r="I351" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J346" s="7">
+      <c r="J351" s="7">
         <v>60000</v>
       </c>
-      <c r="K346" s="7">
-        <v>1</v>
-      </c>
-      <c r="L346" s="33" t="str">
+      <c r="K351" s="7">
+        <v>1</v>
+      </c>
+      <c r="L351" s="33" t="str">
         <f t="shared" si="0"/>
         <v>БРИЗ</v>
       </c>
-      <c r="M346" s="7" t="str">
+      <c r="M351" s="7" t="str">
         <f t="shared" si="1"/>
         <v>*4</v>
       </c>
-      <c r="N346" s="7" t="s">
+      <c r="N351" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O346" s="7" t="s">
+      <c r="O351" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="347" spans="1:15">
-      <c r="I347" s="7" t="s">
+    <row r="352" spans="1:15">
+      <c r="I352" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J347" s="7">
+      <c r="J352" s="7">
         <v>17000</v>
       </c>
-      <c r="K347" s="7">
-        <v>1</v>
-      </c>
-      <c r="L347" s="33" t="str">
+      <c r="K352" s="7">
+        <v>1</v>
+      </c>
+      <c r="L352" s="33" t="str">
         <f t="shared" si="0"/>
         <v>БРИЗ</v>
       </c>
-      <c r="M347" s="7" t="str">
+      <c r="M352" s="7" t="str">
         <f t="shared" si="1"/>
         <v>*4</v>
-      </c>
-      <c r="N347" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O347" s="7" t="str">
-        <f>IF(N347="W","1/12","1/5")</f>
-        <v>1/12</v>
-      </c>
-    </row>
-    <row r="348" spans="1:15">
-      <c r="I348" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J348" s="7">
-        <v>23000</v>
-      </c>
-      <c r="K348" s="7">
-        <v>1</v>
-      </c>
-      <c r="L348" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>БРИЗ</v>
-      </c>
-      <c r="M348" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>*4</v>
-      </c>
-      <c r="N348" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O348" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="349" spans="1:15">
-      <c r="I349" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J349" s="7">
-        <v>25000</v>
-      </c>
-      <c r="K349" s="7">
-        <v>2</v>
-      </c>
-      <c r="L349" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>ВОЛНА</v>
-      </c>
-      <c r="M349" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>*5</v>
-      </c>
-      <c r="N349" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O349" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="350" spans="1:15">
-      <c r="I350" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J350" s="7">
-        <v>32000</v>
-      </c>
-      <c r="K350" s="7">
-        <v>2</v>
-      </c>
-      <c r="L350" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>ВОЛНА</v>
-      </c>
-      <c r="M350" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>*5</v>
-      </c>
-      <c r="N350" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O350" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="351" spans="1:15">
-      <c r="I351" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J351" s="7">
-        <v>16000</v>
-      </c>
-      <c r="K351" s="7">
-        <v>2</v>
-      </c>
-      <c r="L351" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>ВОЛНА</v>
-      </c>
-      <c r="M351" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>*5</v>
-      </c>
-      <c r="N351" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O351" s="7" t="str">
-        <f>IF(N351="W","1/12","1/5")</f>
-        <v>1/12</v>
-      </c>
-    </row>
-    <row r="352" spans="1:15">
-      <c r="I352" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J352" s="7">
-        <v>20000</v>
-      </c>
-      <c r="K352" s="7">
-        <v>2</v>
-      </c>
-      <c r="L352" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>ВОЛНА</v>
-      </c>
-      <c r="M352" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>*5</v>
       </c>
       <c r="N352" s="7" t="s">
         <v>69</v>
@@ -6718,103 +6641,194 @@
     </row>
     <row r="353" spans="9:15">
       <c r="I353" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J353" s="7">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="K353" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L353" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>ВОЛНА</v>
+        <v>БРИЗ</v>
       </c>
       <c r="M353" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>*5</v>
+        <v>*4</v>
       </c>
       <c r="N353" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O353" s="7" t="str">
-        <f>IF(N353="W","1/12","1/5")</f>
-        <v>1/5</v>
+        <v>56</v>
+      </c>
+      <c r="O353" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="354" spans="9:15">
       <c r="I354" s="7" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="J354" s="7">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="K354" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L354" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>БРИЗ</v>
+        <v>ВОЛНА</v>
       </c>
       <c r="M354" s="7" t="str">
         <f t="shared" si="1"/>
+        <v>*5</v>
+      </c>
+      <c r="N354" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O354" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="355" spans="9:15">
+      <c r="I355" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J355" s="7">
+        <v>32000</v>
+      </c>
+      <c r="K355" s="7">
+        <v>2</v>
+      </c>
+      <c r="L355" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>ВОЛНА</v>
+      </c>
+      <c r="M355" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>*5</v>
+      </c>
+      <c r="N355" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O355" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="356" spans="9:15">
+      <c r="I356" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J356" s="7">
+        <v>16000</v>
+      </c>
+      <c r="K356" s="7">
+        <v>2</v>
+      </c>
+      <c r="L356" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>ВОЛНА</v>
+      </c>
+      <c r="M356" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>*5</v>
+      </c>
+      <c r="N356" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O356" s="7" t="str">
+        <f>IF(N356="W","1/12","1/5")</f>
+        <v>1/12</v>
+      </c>
+    </row>
+    <row r="357" spans="9:15">
+      <c r="I357" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J357" s="7">
+        <v>20000</v>
+      </c>
+      <c r="K357" s="7">
+        <v>2</v>
+      </c>
+      <c r="L357" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>ВОЛНА</v>
+      </c>
+      <c r="M357" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>*5</v>
+      </c>
+      <c r="N357" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O357" s="7" t="str">
+        <f>IF(N357="W","1/12","1/5")</f>
+        <v>1/12</v>
+      </c>
+    </row>
+    <row r="358" spans="9:15">
+      <c r="I358" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J358" s="7">
+        <v>40000</v>
+      </c>
+      <c r="K358" s="7">
+        <v>2</v>
+      </c>
+      <c r="L358" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>ВОЛНА</v>
+      </c>
+      <c r="M358" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>*5</v>
+      </c>
+      <c r="N358" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O358" s="7" t="str">
+        <f>IF(N358="W","1/12","1/5")</f>
+        <v>1/5</v>
+      </c>
+    </row>
+    <row r="359" spans="9:15">
+      <c r="I359" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J359" s="7">
+        <v>17000</v>
+      </c>
+      <c r="K359" s="7">
+        <v>1</v>
+      </c>
+      <c r="L359" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>БРИЗ</v>
+      </c>
+      <c r="M359" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>*4</v>
       </c>
-      <c r="N354" s="7" t="s">
+      <c r="N359" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="O354" s="7" t="str">
-        <f>IF(N354="W","1/12","1/5")</f>
+      <c r="O359" s="7" t="str">
+        <f>IF(N359="W","1/12","1/5")</f>
         <v>1/5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="P112:Z112"/>
-    <mergeCell ref="I114:K114"/>
-    <mergeCell ref="F115:L115"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="P115:Z115"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="T116:V116"/>
-    <mergeCell ref="X116:Y116"/>
-    <mergeCell ref="H116:L116"/>
-    <mergeCell ref="H117:L117"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="H85:L85"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="H20:U20"/>
-    <mergeCell ref="H30:U30"/>
-    <mergeCell ref="H31:U31"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="R313:S313"/>
-    <mergeCell ref="U313:V313"/>
-    <mergeCell ref="I315:J315"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="Q315:R315"/>
-    <mergeCell ref="K313:L313"/>
-    <mergeCell ref="M313:N313"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="F179:I179"/>
-    <mergeCell ref="F180:I180"/>
-    <mergeCell ref="P313:Q313"/>
-    <mergeCell ref="K209:L209"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="I309:J309"/>
-    <mergeCell ref="E274:J274"/>
-    <mergeCell ref="E275:J275"/>
-    <mergeCell ref="E276:J276"/>
-    <mergeCell ref="E277:J277"/>
-    <mergeCell ref="M274:N274"/>
-    <mergeCell ref="M275:N275"/>
-    <mergeCell ref="M276:N276"/>
-    <mergeCell ref="M277:N277"/>
+  <mergeCells count="70">
+    <mergeCell ref="I305:M305"/>
+    <mergeCell ref="I306:M306"/>
+    <mergeCell ref="I307:M307"/>
+    <mergeCell ref="H308:N308"/>
+    <mergeCell ref="W122:X122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="O122:P122"/>
+    <mergeCell ref="O152:R152"/>
+    <mergeCell ref="K123:Q123"/>
     <mergeCell ref="K121:Q121"/>
     <mergeCell ref="W278:X278"/>
     <mergeCell ref="W274:X274"/>
@@ -6831,11 +6845,51 @@
     <mergeCell ref="K208:L208"/>
     <mergeCell ref="O153:U153"/>
     <mergeCell ref="T122:U122"/>
-    <mergeCell ref="W122:X122"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="O122:P122"/>
-    <mergeCell ref="O152:R152"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="F179:I179"/>
+    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="P318:Q318"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="I314:J314"/>
+    <mergeCell ref="E274:J274"/>
+    <mergeCell ref="E275:J275"/>
+    <mergeCell ref="E276:J276"/>
+    <mergeCell ref="E277:J277"/>
+    <mergeCell ref="M274:N274"/>
+    <mergeCell ref="M275:N275"/>
+    <mergeCell ref="M276:N276"/>
+    <mergeCell ref="M277:N277"/>
+    <mergeCell ref="R318:S318"/>
+    <mergeCell ref="U318:V318"/>
+    <mergeCell ref="I320:J320"/>
+    <mergeCell ref="L320:M320"/>
+    <mergeCell ref="N320:O320"/>
+    <mergeCell ref="Q320:R320"/>
+    <mergeCell ref="K318:L318"/>
+    <mergeCell ref="M318:N318"/>
+    <mergeCell ref="H20:U20"/>
+    <mergeCell ref="H30:U30"/>
+    <mergeCell ref="H31:U31"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="H85:L85"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="P112:Z112"/>
+    <mergeCell ref="I114:K114"/>
+    <mergeCell ref="F115:L115"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="P115:Z115"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="T116:V116"/>
+    <mergeCell ref="X116:Y116"/>
+    <mergeCell ref="H116:L116"/>
+    <mergeCell ref="H117:L117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
